--- a/Twitter_bishops.xlsx
+++ b/Twitter_bishops.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acavender/Documents/Data analysis/bishopsAndTwitter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B2AD96-8B9E-6B41-8B54-FE0A57A81F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D2CC63-F5EF-7749-9869-3FE8F2ED515C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{34090DEA-69FC-D846-84F2-4CAD68C07F9F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{34090DEA-69FC-D846-84F2-4CAD68C07F9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Clean" sheetId="2" r:id="rId1"/>
     <sheet name="Original" sheetId="1" r:id="rId2"/>
+    <sheet name="Calculations" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -194,8 +195,87 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{C92079C3-5621-4C4A-BA57-3BC10F0B3A30}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Used @BishopRaica when he was Bishop of Gaylord: https://twitter.com/BishopRaica
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">	-Amy Cavender</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H70" authorId="0" shapeId="0" xr:uid="{C49E0CD5-2AEB-2647-AB2E-515299A00FA8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Tweets protected
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">	-Amy Cavender</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H87" authorId="0" shapeId="0" xr:uid="{338F9E60-DB89-854C-AC1A-40902E3F1249}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Tweets protected
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">	-Amy Cavender</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2352" uniqueCount="478">
   <si>
     <t>State</t>
   </si>
@@ -2063,9 +2143,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80807877-8080-254F-A2A4-CAEF3F01F238}">
   <dimension ref="A1:Z117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J117" sqref="J117"/>
+      <selection pane="bottomLeft" activeCell="H110" sqref="H110:L116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7408,94 +7488,14 @@
       <c r="Z108" s="5"/>
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H110" t="s">
-        <v>473</v>
-      </c>
-      <c r="I110" s="15">
-        <f>AVERAGE(I2:I108)</f>
-        <v>11435.41121495327</v>
-      </c>
-      <c r="J110" s="15">
-        <f t="shared" ref="J110:K110" si="0">AVERAGE(J2:J108)</f>
-        <v>135.27102803738319</v>
-      </c>
-      <c r="K110" s="15">
-        <f t="shared" si="0"/>
-        <v>2102.7570093457944</v>
-      </c>
-    </row>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H111" t="s">
-        <v>474</v>
-      </c>
-      <c r="I111" s="15">
-        <f>MEDIAN(I2:I108)</f>
-        <v>2053</v>
-      </c>
-      <c r="J111" s="15">
-        <f t="shared" ref="J111:K111" si="1">MEDIAN(J2:J108)</f>
-        <v>51</v>
-      </c>
-      <c r="K111" s="15">
-        <f t="shared" si="1"/>
-        <v>694</v>
-      </c>
-    </row>
-    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H112" t="s">
-        <v>475</v>
-      </c>
-      <c r="I112" s="15">
-        <f>MODE(I2:I108)</f>
-        <v>7</v>
-      </c>
-      <c r="J112" s="15">
-        <f t="shared" ref="J112:K112" si="2">MODE(J2:J108)</f>
-        <v>0</v>
-      </c>
-      <c r="K112" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="8:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" spans="8:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H114" t="s">
-        <v>476</v>
-      </c>
-      <c r="I114" s="15">
-        <f>MAX(I2:I108)</f>
-        <v>266458</v>
-      </c>
-      <c r="J114" s="15">
-        <f t="shared" ref="J114:K114" si="3">MAX(J2:J108)</f>
-        <v>1355</v>
-      </c>
-      <c r="K114" s="15">
-        <f t="shared" si="3"/>
-        <v>29070</v>
-      </c>
-    </row>
-    <row r="115" spans="8:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H115" t="s">
-        <v>477</v>
-      </c>
-      <c r="I115" s="15">
-        <f>MIN(I2:I108)</f>
-        <v>0</v>
-      </c>
-      <c r="J115" s="15">
-        <f t="shared" ref="J115:K115" si="4">MIN(J2:J108)</f>
-        <v>0</v>
-      </c>
-      <c r="K115" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="8:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" spans="8:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G108" xr:uid="{AEACC24A-D96C-D245-9DF0-6933990D4F53}">
@@ -13198,4 +13198,5561 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId106"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044E2AB4-CF41-8143-88AF-BE70935CCE4C}">
+  <dimension ref="A1:Z117"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I48" sqref="I48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="10.83203125" style="15"/>
+    <col min="12" max="12" width="13.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="14">
+        <v>3504</v>
+      </c>
+      <c r="J2" s="14">
+        <v>73</v>
+      </c>
+      <c r="K2" s="14">
+        <v>1398</v>
+      </c>
+      <c r="L2" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+    </row>
+    <row r="3" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="14">
+        <v>187</v>
+      </c>
+      <c r="J3" s="14">
+        <v>1</v>
+      </c>
+      <c r="K3" s="14">
+        <v>19</v>
+      </c>
+      <c r="L3" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="14">
+        <v>15</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0</v>
+      </c>
+      <c r="K4" s="14">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+    </row>
+    <row r="5" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="14">
+        <v>1643</v>
+      </c>
+      <c r="J5" s="14">
+        <v>114</v>
+      </c>
+      <c r="K5" s="14">
+        <v>791</v>
+      </c>
+      <c r="L5" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="14">
+        <v>56593</v>
+      </c>
+      <c r="J6" s="14">
+        <v>59</v>
+      </c>
+      <c r="K6" s="14">
+        <v>14095</v>
+      </c>
+      <c r="L6" s="11">
+        <v>70.69</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="14">
+        <v>67588</v>
+      </c>
+      <c r="J7" s="14">
+        <v>648</v>
+      </c>
+      <c r="K7" s="14">
+        <v>1726</v>
+      </c>
+      <c r="L7" s="11">
+        <v>73.19</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="14">
+        <v>855</v>
+      </c>
+      <c r="J8" s="14">
+        <v>558</v>
+      </c>
+      <c r="K8" s="14">
+        <v>2272</v>
+      </c>
+      <c r="L8" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="14">
+        <v>1504</v>
+      </c>
+      <c r="J9" s="14">
+        <v>3</v>
+      </c>
+      <c r="K9" s="14">
+        <v>44</v>
+      </c>
+      <c r="L9" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="14">
+        <v>2503</v>
+      </c>
+      <c r="J10" s="14">
+        <v>51</v>
+      </c>
+      <c r="K10" s="14">
+        <v>739</v>
+      </c>
+      <c r="L10" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0</v>
+      </c>
+      <c r="J11" s="14">
+        <v>1</v>
+      </c>
+      <c r="K11" s="14">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="14">
+        <v>75</v>
+      </c>
+      <c r="J12" s="14">
+        <v>33</v>
+      </c>
+      <c r="K12" s="14">
+        <v>4</v>
+      </c>
+      <c r="L12" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+    </row>
+    <row r="13" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="14">
+        <v>9196</v>
+      </c>
+      <c r="J13" s="14">
+        <v>10</v>
+      </c>
+      <c r="K13" s="14">
+        <v>1557</v>
+      </c>
+      <c r="L13" s="11">
+        <v>14.19</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+    </row>
+    <row r="14" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="14">
+        <v>471</v>
+      </c>
+      <c r="J14" s="14">
+        <v>20</v>
+      </c>
+      <c r="K14" s="14">
+        <v>98</v>
+      </c>
+      <c r="L14" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+    </row>
+    <row r="15" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="14">
+        <v>13586</v>
+      </c>
+      <c r="J15" s="14">
+        <v>80</v>
+      </c>
+      <c r="K15" s="14">
+        <v>15563</v>
+      </c>
+      <c r="L15" s="11">
+        <v>29.19</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+    </row>
+    <row r="16" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="14">
+        <v>7046</v>
+      </c>
+      <c r="J16" s="14">
+        <v>660</v>
+      </c>
+      <c r="K16" s="14">
+        <v>5318</v>
+      </c>
+      <c r="L16" s="11">
+        <v>12.99</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+    </row>
+    <row r="17" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I17" s="14">
+        <v>3049</v>
+      </c>
+      <c r="J17" s="14">
+        <v>14</v>
+      </c>
+      <c r="K17" s="14">
+        <v>2067</v>
+      </c>
+      <c r="L17" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+    </row>
+    <row r="18" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" s="14">
+        <v>152</v>
+      </c>
+      <c r="J18" s="14">
+        <v>102</v>
+      </c>
+      <c r="K18" s="14">
+        <v>28</v>
+      </c>
+      <c r="L18" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+    </row>
+    <row r="19" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="14">
+        <v>3246</v>
+      </c>
+      <c r="J19" s="14">
+        <v>8</v>
+      </c>
+      <c r="K19" s="14">
+        <v>1479</v>
+      </c>
+      <c r="L19" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+    </row>
+    <row r="20" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" s="14">
+        <v>2661</v>
+      </c>
+      <c r="J20" s="14">
+        <v>68</v>
+      </c>
+      <c r="K20" s="14">
+        <v>247</v>
+      </c>
+      <c r="L20" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+    </row>
+    <row r="21" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I21" s="14">
+        <v>20</v>
+      </c>
+      <c r="J21" s="14">
+        <v>0</v>
+      </c>
+      <c r="K21" s="14">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+    </row>
+    <row r="22" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I22" s="14">
+        <v>33589</v>
+      </c>
+      <c r="J22" s="14">
+        <v>72</v>
+      </c>
+      <c r="K22" s="14">
+        <v>4739</v>
+      </c>
+      <c r="L22" s="11">
+        <v>38.590000000000003</v>
+      </c>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+    </row>
+    <row r="23" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I23" s="14">
+        <v>167</v>
+      </c>
+      <c r="J23" s="14">
+        <v>3</v>
+      </c>
+      <c r="K23" s="14">
+        <v>0</v>
+      </c>
+      <c r="L23" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+    </row>
+    <row r="24" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I24" s="14">
+        <v>342</v>
+      </c>
+      <c r="J24" s="14">
+        <v>0</v>
+      </c>
+      <c r="K24" s="14">
+        <v>3</v>
+      </c>
+      <c r="L24" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+    </row>
+    <row r="25" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" t="s">
+        <v>120</v>
+      </c>
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I25" s="14">
+        <v>1139</v>
+      </c>
+      <c r="J25" s="14">
+        <v>150</v>
+      </c>
+      <c r="K25" s="14">
+        <v>447</v>
+      </c>
+      <c r="L25" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+    </row>
+    <row r="26" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I26" s="14">
+        <v>9264</v>
+      </c>
+      <c r="J26" s="14">
+        <v>522</v>
+      </c>
+      <c r="K26" s="14">
+        <v>1950</v>
+      </c>
+      <c r="L26" s="11">
+        <v>14.79</v>
+      </c>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+    </row>
+    <row r="27" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7" t="str">
+        <f>HYPERLINK("https://www.twitter.com/BishopPaprocki", "@BishopPaprocki")</f>
+        <v>@BishopPaprocki</v>
+      </c>
+      <c r="I27" s="14">
+        <v>10327</v>
+      </c>
+      <c r="J27" s="14">
+        <v>78</v>
+      </c>
+      <c r="K27" s="14">
+        <v>488</v>
+      </c>
+      <c r="L27" s="11">
+        <v>15.39</v>
+      </c>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+    </row>
+    <row r="28" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I28" s="14">
+        <v>4073</v>
+      </c>
+      <c r="J28" s="14">
+        <v>51</v>
+      </c>
+      <c r="K28" s="14">
+        <v>3465</v>
+      </c>
+      <c r="L28" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+    </row>
+    <row r="29" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" t="s">
+        <v>135</v>
+      </c>
+      <c r="G29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I29" s="14">
+        <v>897</v>
+      </c>
+      <c r="J29" s="14">
+        <v>41</v>
+      </c>
+      <c r="K29" s="14">
+        <v>562</v>
+      </c>
+      <c r="L29" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+    </row>
+    <row r="30" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" t="s">
+        <v>140</v>
+      </c>
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I30" s="14">
+        <v>128</v>
+      </c>
+      <c r="J30" s="14">
+        <v>2</v>
+      </c>
+      <c r="K30" s="14">
+        <v>202</v>
+      </c>
+      <c r="L30" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+    </row>
+    <row r="31" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" t="s">
+        <v>145</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I31" s="14">
+        <v>1362</v>
+      </c>
+      <c r="J31" s="14">
+        <v>356</v>
+      </c>
+      <c r="K31" s="14">
+        <v>188</v>
+      </c>
+      <c r="L31" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+    </row>
+    <row r="32" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32" t="s">
+        <v>150</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I32" s="14">
+        <v>2206</v>
+      </c>
+      <c r="J32" s="14">
+        <v>4</v>
+      </c>
+      <c r="K32" s="14">
+        <v>442</v>
+      </c>
+      <c r="L32" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+    </row>
+    <row r="33" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>153</v>
+      </c>
+      <c r="E33" t="s">
+        <v>154</v>
+      </c>
+      <c r="G33" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I33" s="14">
+        <v>31</v>
+      </c>
+      <c r="J33" s="14">
+        <v>1</v>
+      </c>
+      <c r="K33" s="14">
+        <v>11</v>
+      </c>
+      <c r="L33" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+    </row>
+    <row r="34" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" t="s">
+        <v>158</v>
+      </c>
+      <c r="F34" t="s">
+        <v>159</v>
+      </c>
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I34" s="14">
+        <v>6695</v>
+      </c>
+      <c r="J34" s="14">
+        <v>69</v>
+      </c>
+      <c r="K34" s="14">
+        <v>869</v>
+      </c>
+      <c r="L34" s="11">
+        <v>11.69</v>
+      </c>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+    </row>
+    <row r="35" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>163</v>
+      </c>
+      <c r="E35" t="s">
+        <v>164</v>
+      </c>
+      <c r="G35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I35" s="14">
+        <v>35</v>
+      </c>
+      <c r="J35" s="14">
+        <v>0</v>
+      </c>
+      <c r="K35" s="14">
+        <v>0</v>
+      </c>
+      <c r="L35" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+    </row>
+    <row r="36" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>161</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>167</v>
+      </c>
+      <c r="E36" t="s">
+        <v>168</v>
+      </c>
+      <c r="G36" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="I36" s="14">
+        <v>90</v>
+      </c>
+      <c r="J36" s="14">
+        <v>10</v>
+      </c>
+      <c r="K36" s="14">
+        <v>66</v>
+      </c>
+      <c r="L36" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+    </row>
+    <row r="37" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>171</v>
+      </c>
+      <c r="E37" t="s">
+        <v>172</v>
+      </c>
+      <c r="G37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I37" s="14">
+        <v>13</v>
+      </c>
+      <c r="J37" s="14">
+        <v>0</v>
+      </c>
+      <c r="K37" s="14">
+        <v>0</v>
+      </c>
+      <c r="L37" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+    </row>
+    <row r="38" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>174</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>176</v>
+      </c>
+      <c r="E38" t="s">
+        <v>177</v>
+      </c>
+      <c r="F38" t="s">
+        <v>178</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I38" s="14">
+        <v>55399</v>
+      </c>
+      <c r="J38" s="14">
+        <v>577</v>
+      </c>
+      <c r="K38" s="14">
+        <v>1447</v>
+      </c>
+      <c r="L38" s="11">
+        <v>60.89</v>
+      </c>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+    </row>
+    <row r="39" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>180</v>
+      </c>
+      <c r="E39" t="s">
+        <v>181</v>
+      </c>
+      <c r="G39" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="I39" s="14">
+        <v>6307</v>
+      </c>
+      <c r="J39" s="14">
+        <v>202</v>
+      </c>
+      <c r="K39" s="14">
+        <v>2105</v>
+      </c>
+      <c r="L39" s="11">
+        <v>11.49</v>
+      </c>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+    </row>
+    <row r="40" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>174</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>183</v>
+      </c>
+      <c r="E40" t="s">
+        <v>184</v>
+      </c>
+      <c r="G40" t="s">
+        <v>34</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I40" s="14">
+        <v>14936</v>
+      </c>
+      <c r="J40" s="14">
+        <v>985</v>
+      </c>
+      <c r="K40" s="14">
+        <v>6303</v>
+      </c>
+      <c r="L40" s="11">
+        <v>22.19</v>
+      </c>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+    </row>
+    <row r="41" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>174</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" t="s">
+        <v>186</v>
+      </c>
+      <c r="E41" t="s">
+        <v>187</v>
+      </c>
+      <c r="G41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I41" s="14">
+        <v>904</v>
+      </c>
+      <c r="J41" s="14">
+        <v>40</v>
+      </c>
+      <c r="K41" s="14">
+        <v>99</v>
+      </c>
+      <c r="L41" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+    </row>
+    <row r="42" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>191</v>
+      </c>
+      <c r="E42" t="s">
+        <v>192</v>
+      </c>
+      <c r="G42" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="I42" s="14">
+        <v>9061</v>
+      </c>
+      <c r="J42" s="14">
+        <v>97</v>
+      </c>
+      <c r="K42" s="14">
+        <v>2963</v>
+      </c>
+      <c r="L42" s="11">
+        <v>14.09</v>
+      </c>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+    </row>
+    <row r="43" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>189</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>195</v>
+      </c>
+      <c r="E43" t="s">
+        <v>196</v>
+      </c>
+      <c r="G43" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="I43" s="14">
+        <v>1494</v>
+      </c>
+      <c r="J43" s="14">
+        <v>112</v>
+      </c>
+      <c r="K43" s="14">
+        <v>694</v>
+      </c>
+      <c r="L43" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+    </row>
+    <row r="44" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>198</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>200</v>
+      </c>
+      <c r="E44" t="s">
+        <v>201</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="I44" s="14">
+        <v>2219</v>
+      </c>
+      <c r="J44" s="14">
+        <v>5</v>
+      </c>
+      <c r="K44" s="14">
+        <v>99</v>
+      </c>
+      <c r="L44" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+    </row>
+    <row r="45" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>198</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>204</v>
+      </c>
+      <c r="E45" t="s">
+        <v>205</v>
+      </c>
+      <c r="G45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="I45" s="14">
+        <v>279</v>
+      </c>
+      <c r="J45" s="14">
+        <v>165</v>
+      </c>
+      <c r="K45" s="14">
+        <v>18</v>
+      </c>
+      <c r="L45" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+    </row>
+    <row r="46" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>198</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>208</v>
+      </c>
+      <c r="E46" t="s">
+        <v>209</v>
+      </c>
+      <c r="G46" t="s">
+        <v>56</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="I46" s="14">
+        <v>2014</v>
+      </c>
+      <c r="J46" s="14">
+        <v>5</v>
+      </c>
+      <c r="K46" s="14">
+        <v>2836</v>
+      </c>
+      <c r="L46" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+    </row>
+    <row r="47" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>198</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>212</v>
+      </c>
+      <c r="E47" t="s">
+        <v>213</v>
+      </c>
+      <c r="G47" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I47" s="14">
+        <v>2173</v>
+      </c>
+      <c r="J47" s="14">
+        <v>139</v>
+      </c>
+      <c r="K47" s="14">
+        <v>438</v>
+      </c>
+      <c r="L47" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+    </row>
+    <row r="48" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>198</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>216</v>
+      </c>
+      <c r="E48" t="s">
+        <v>217</v>
+      </c>
+      <c r="G48" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="I48" s="14">
+        <v>244029</v>
+      </c>
+      <c r="J48" s="14">
+        <v>17</v>
+      </c>
+      <c r="K48" s="14">
+        <v>7588</v>
+      </c>
+      <c r="L48" s="11">
+        <v>251.59</v>
+      </c>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+    </row>
+    <row r="49" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>219</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>221</v>
+      </c>
+      <c r="E49" t="s">
+        <v>222</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="I49" s="14">
+        <v>1487</v>
+      </c>
+      <c r="J49" s="14">
+        <v>190</v>
+      </c>
+      <c r="K49" s="14">
+        <v>239</v>
+      </c>
+      <c r="L49" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+    </row>
+    <row r="50" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>219</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" t="s">
+        <v>225</v>
+      </c>
+      <c r="E50" t="s">
+        <v>226</v>
+      </c>
+      <c r="G50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I50" s="14">
+        <v>1816</v>
+      </c>
+      <c r="J50" s="14">
+        <v>71</v>
+      </c>
+      <c r="K50" s="14">
+        <v>904</v>
+      </c>
+      <c r="L50" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
+    </row>
+    <row r="51" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>228</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" t="s">
+        <v>230</v>
+      </c>
+      <c r="E51" t="s">
+        <v>231</v>
+      </c>
+      <c r="G51" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="I51" s="14">
+        <v>14947</v>
+      </c>
+      <c r="J51" s="14">
+        <v>161</v>
+      </c>
+      <c r="K51" s="14">
+        <v>2093</v>
+      </c>
+      <c r="L51" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5"/>
+    </row>
+    <row r="52" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>233</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" t="s">
+        <v>235</v>
+      </c>
+      <c r="E52" t="s">
+        <v>236</v>
+      </c>
+      <c r="G52" t="s">
+        <v>56</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="I52" s="14">
+        <v>45</v>
+      </c>
+      <c r="J52" s="14">
+        <v>9</v>
+      </c>
+      <c r="K52" s="14">
+        <v>0</v>
+      </c>
+      <c r="L52" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+    </row>
+    <row r="53" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>233</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" t="s">
+        <v>239</v>
+      </c>
+      <c r="E53" t="s">
+        <v>240</v>
+      </c>
+      <c r="G53" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="I53" s="14">
+        <v>46</v>
+      </c>
+      <c r="J53" s="14">
+        <v>4</v>
+      </c>
+      <c r="K53" s="14">
+        <v>1</v>
+      </c>
+      <c r="L53" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+    </row>
+    <row r="54" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>242</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" t="s">
+        <v>244</v>
+      </c>
+      <c r="E54" t="s">
+        <v>245</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="I54" s="14">
+        <v>13134</v>
+      </c>
+      <c r="J54" s="14">
+        <v>111</v>
+      </c>
+      <c r="K54" s="14">
+        <v>3569</v>
+      </c>
+      <c r="L54" s="11">
+        <v>18.190000000000001</v>
+      </c>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+    </row>
+    <row r="55" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>242</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>247</v>
+      </c>
+      <c r="E55" t="s">
+        <v>248</v>
+      </c>
+      <c r="G55" t="s">
+        <v>34</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="I55" s="14">
+        <v>1373</v>
+      </c>
+      <c r="J55" s="14">
+        <v>274</v>
+      </c>
+      <c r="K55" s="14">
+        <v>6689</v>
+      </c>
+      <c r="L55" s="11">
+        <v>11.69</v>
+      </c>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="5"/>
+    </row>
+    <row r="56" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>250</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>252</v>
+      </c>
+      <c r="E56" t="s">
+        <v>253</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="I56" s="14">
+        <v>5226</v>
+      </c>
+      <c r="J56" s="14">
+        <v>54</v>
+      </c>
+      <c r="K56" s="14">
+        <v>796</v>
+      </c>
+      <c r="L56" s="11">
+        <v>10.19</v>
+      </c>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5"/>
+    </row>
+    <row r="57" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>255</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" t="s">
+        <v>256</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="I57" s="14">
+        <v>266458</v>
+      </c>
+      <c r="J57" s="14">
+        <v>6</v>
+      </c>
+      <c r="K57" s="14">
+        <v>4154</v>
+      </c>
+      <c r="L57" s="11">
+        <v>271.39</v>
+      </c>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="5"/>
+    </row>
+    <row r="58" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>255</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
+        <v>258</v>
+      </c>
+      <c r="E58" t="s">
+        <v>236</v>
+      </c>
+      <c r="G58" t="s">
+        <v>34</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="I58" s="14">
+        <v>169</v>
+      </c>
+      <c r="J58" s="14">
+        <v>87</v>
+      </c>
+      <c r="K58" s="14">
+        <v>85</v>
+      </c>
+      <c r="L58" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5"/>
+    </row>
+    <row r="59" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>255</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C59" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" t="s">
+        <v>261</v>
+      </c>
+      <c r="E59" t="s">
+        <v>262</v>
+      </c>
+      <c r="G59" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="I59" s="14">
+        <v>6024</v>
+      </c>
+      <c r="J59" s="14">
+        <v>267</v>
+      </c>
+      <c r="K59" s="14">
+        <v>382</v>
+      </c>
+      <c r="L59" s="11">
+        <v>11.29</v>
+      </c>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
+      <c r="W59" s="5"/>
+      <c r="X59" s="5"/>
+      <c r="Y59" s="5"/>
+      <c r="Z59" s="5"/>
+    </row>
+    <row r="60" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>255</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" t="s">
+        <v>264</v>
+      </c>
+      <c r="E60" t="s">
+        <v>265</v>
+      </c>
+      <c r="G60" t="s">
+        <v>266</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I60" s="14">
+        <v>137</v>
+      </c>
+      <c r="J60" s="14">
+        <v>108</v>
+      </c>
+      <c r="K60" s="14">
+        <v>9</v>
+      </c>
+      <c r="L60" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
+      <c r="W60" s="5"/>
+      <c r="X60" s="5"/>
+      <c r="Y60" s="5"/>
+      <c r="Z60" s="5"/>
+    </row>
+    <row r="61" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>255</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C61" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" t="s">
+        <v>269</v>
+      </c>
+      <c r="E61" t="s">
+        <v>270</v>
+      </c>
+      <c r="G61" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="I61" s="14">
+        <v>6150</v>
+      </c>
+      <c r="J61" s="14">
+        <v>136</v>
+      </c>
+      <c r="K61" s="14">
+        <v>8814</v>
+      </c>
+      <c r="L61" s="11">
+        <v>15.09</v>
+      </c>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="5"/>
+      <c r="V61" s="5"/>
+      <c r="W61" s="5"/>
+      <c r="X61" s="5"/>
+      <c r="Y61" s="5"/>
+      <c r="Z61" s="5"/>
+    </row>
+    <row r="62" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>255</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" t="s">
+        <v>273</v>
+      </c>
+      <c r="E62" t="s">
+        <v>274</v>
+      </c>
+      <c r="G62" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="I62" s="14">
+        <v>613</v>
+      </c>
+      <c r="J62" s="14">
+        <v>73</v>
+      </c>
+      <c r="K62" s="14">
+        <v>356</v>
+      </c>
+      <c r="L62" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5"/>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="5"/>
+      <c r="Z62" s="5"/>
+    </row>
+    <row r="63" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>276</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" t="s">
+        <v>278</v>
+      </c>
+      <c r="E63" t="s">
+        <v>279</v>
+      </c>
+      <c r="G63" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="I63" s="14">
+        <v>3217</v>
+      </c>
+      <c r="J63" s="14">
+        <v>36</v>
+      </c>
+      <c r="K63" s="14">
+        <v>2665</v>
+      </c>
+      <c r="L63" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5"/>
+      <c r="W63" s="5"/>
+      <c r="X63" s="5"/>
+      <c r="Y63" s="5"/>
+      <c r="Z63" s="5"/>
+    </row>
+    <row r="64" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>281</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" t="s">
+        <v>283</v>
+      </c>
+      <c r="E64" t="s">
+        <v>284</v>
+      </c>
+      <c r="G64" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="I64" s="14">
+        <v>1121</v>
+      </c>
+      <c r="J64" s="14">
+        <v>41</v>
+      </c>
+      <c r="K64" s="14">
+        <v>528</v>
+      </c>
+      <c r="L64" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+      <c r="W64" s="5"/>
+      <c r="X64" s="5"/>
+      <c r="Y64" s="5"/>
+      <c r="Z64" s="5"/>
+    </row>
+    <row r="65" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>281</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" t="s">
+        <v>287</v>
+      </c>
+      <c r="E65" t="s">
+        <v>288</v>
+      </c>
+      <c r="G65" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="I65" s="14">
+        <v>3996</v>
+      </c>
+      <c r="J65" s="14">
+        <v>26</v>
+      </c>
+      <c r="K65" s="14">
+        <v>1874</v>
+      </c>
+      <c r="L65" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5"/>
+      <c r="W65" s="5"/>
+      <c r="X65" s="5"/>
+      <c r="Y65" s="5"/>
+      <c r="Z65" s="5"/>
+    </row>
+    <row r="66" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>281</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" t="s">
+        <v>291</v>
+      </c>
+      <c r="E66" t="s">
+        <v>292</v>
+      </c>
+      <c r="G66" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="I66" s="14">
+        <v>2053</v>
+      </c>
+      <c r="J66" s="14">
+        <v>6</v>
+      </c>
+      <c r="K66" s="14">
+        <v>1462</v>
+      </c>
+      <c r="L66" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+      <c r="W66" s="5"/>
+      <c r="X66" s="5"/>
+      <c r="Y66" s="5"/>
+      <c r="Z66" s="5"/>
+    </row>
+    <row r="67" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>281</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" t="s">
+        <v>295</v>
+      </c>
+      <c r="E67" t="s">
+        <v>296</v>
+      </c>
+      <c r="G67" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="I67" s="14">
+        <v>2</v>
+      </c>
+      <c r="J67" s="14">
+        <v>0</v>
+      </c>
+      <c r="K67" s="14">
+        <v>0</v>
+      </c>
+      <c r="L67" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5"/>
+      <c r="V67" s="5"/>
+      <c r="W67" s="5"/>
+      <c r="X67" s="5"/>
+      <c r="Y67" s="5"/>
+      <c r="Z67" s="5"/>
+    </row>
+    <row r="68" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>298</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" t="s">
+        <v>300</v>
+      </c>
+      <c r="E68" t="s">
+        <v>301</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="I68" s="14">
+        <v>9963</v>
+      </c>
+      <c r="J68" s="14">
+        <v>203</v>
+      </c>
+      <c r="K68" s="14">
+        <v>949</v>
+      </c>
+      <c r="L68" s="11">
+        <v>15.09</v>
+      </c>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5"/>
+      <c r="W68" s="5"/>
+      <c r="X68" s="5"/>
+      <c r="Y68" s="5"/>
+      <c r="Z68" s="5"/>
+    </row>
+    <row r="69" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>303</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" t="s">
+        <v>305</v>
+      </c>
+      <c r="E69" t="s">
+        <v>306</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="I69" s="14">
+        <v>15660</v>
+      </c>
+      <c r="J69" s="14">
+        <v>5</v>
+      </c>
+      <c r="K69" s="14">
+        <v>1212</v>
+      </c>
+      <c r="L69" s="11">
+        <v>20.59</v>
+      </c>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5"/>
+      <c r="W69" s="5"/>
+      <c r="X69" s="5"/>
+      <c r="Y69" s="5"/>
+      <c r="Z69" s="5"/>
+    </row>
+    <row r="70" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>303</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s">
+        <v>308</v>
+      </c>
+      <c r="E70" t="s">
+        <v>309</v>
+      </c>
+      <c r="G70" t="s">
+        <v>34</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="I70" s="14">
+        <v>14</v>
+      </c>
+      <c r="J70" s="14">
+        <v>287</v>
+      </c>
+      <c r="K70" s="14">
+        <v>20</v>
+      </c>
+      <c r="L70" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="M70" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="5"/>
+      <c r="V70" s="5"/>
+      <c r="W70" s="5"/>
+      <c r="X70" s="5"/>
+      <c r="Y70" s="5"/>
+      <c r="Z70" s="5"/>
+    </row>
+    <row r="71" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>311</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" t="s">
+        <v>313</v>
+      </c>
+      <c r="E71" t="s">
+        <v>314</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="I71" s="14">
+        <v>6205</v>
+      </c>
+      <c r="J71" s="14">
+        <v>44</v>
+      </c>
+      <c r="K71" s="14">
+        <v>4692</v>
+      </c>
+      <c r="L71" s="11">
+        <v>11.19</v>
+      </c>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+      <c r="W71" s="5"/>
+      <c r="X71" s="5"/>
+      <c r="Y71" s="5"/>
+      <c r="Z71" s="5"/>
+    </row>
+    <row r="72" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>311</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" t="s">
+        <v>316</v>
+      </c>
+      <c r="E72" t="s">
+        <v>317</v>
+      </c>
+      <c r="G72" t="s">
+        <v>318</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="I72" s="14">
+        <v>587</v>
+      </c>
+      <c r="J72" s="14">
+        <v>50</v>
+      </c>
+      <c r="K72" s="14">
+        <v>65</v>
+      </c>
+      <c r="L72" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5"/>
+      <c r="S72" s="5"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="5"/>
+      <c r="V72" s="5"/>
+      <c r="W72" s="5"/>
+      <c r="X72" s="5"/>
+      <c r="Y72" s="5"/>
+      <c r="Z72" s="5"/>
+    </row>
+    <row r="73" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>311</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C73" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" t="s">
+        <v>321</v>
+      </c>
+      <c r="E73" t="s">
+        <v>322</v>
+      </c>
+      <c r="G73" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="I73" s="14">
+        <v>1479</v>
+      </c>
+      <c r="J73" s="14">
+        <v>16</v>
+      </c>
+      <c r="K73" s="14">
+        <v>2453</v>
+      </c>
+      <c r="L73" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="5"/>
+      <c r="S73" s="5"/>
+      <c r="T73" s="5"/>
+      <c r="U73" s="5"/>
+      <c r="V73" s="5"/>
+      <c r="W73" s="5"/>
+      <c r="X73" s="5"/>
+      <c r="Y73" s="5"/>
+      <c r="Z73" s="5"/>
+    </row>
+    <row r="74" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>311</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" t="s">
+        <v>325</v>
+      </c>
+      <c r="E74" t="s">
+        <v>326</v>
+      </c>
+      <c r="G74" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I74" s="14">
+        <v>43</v>
+      </c>
+      <c r="J74" s="14">
+        <v>0</v>
+      </c>
+      <c r="K74" s="14">
+        <v>0</v>
+      </c>
+      <c r="L74" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5"/>
+      <c r="S74" s="5"/>
+      <c r="T74" s="5"/>
+      <c r="U74" s="5"/>
+      <c r="V74" s="5"/>
+      <c r="W74" s="5"/>
+      <c r="X74" s="5"/>
+      <c r="Y74" s="5"/>
+      <c r="Z74" s="5"/>
+    </row>
+    <row r="75" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>311</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C75" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" t="s">
+        <v>329</v>
+      </c>
+      <c r="E75" t="s">
+        <v>330</v>
+      </c>
+      <c r="G75" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="I75" s="14">
+        <v>877</v>
+      </c>
+      <c r="J75" s="14">
+        <v>1</v>
+      </c>
+      <c r="K75" s="14">
+        <v>465</v>
+      </c>
+      <c r="L75" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="5"/>
+      <c r="V75" s="5"/>
+      <c r="W75" s="5"/>
+      <c r="X75" s="5"/>
+      <c r="Y75" s="5"/>
+      <c r="Z75" s="5"/>
+    </row>
+    <row r="76" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>311</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C76" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" t="s">
+        <v>333</v>
+      </c>
+      <c r="E76" t="s">
+        <v>334</v>
+      </c>
+      <c r="G76" t="s">
+        <v>56</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="I76" s="14">
+        <v>17</v>
+      </c>
+      <c r="J76" s="14">
+        <v>0</v>
+      </c>
+      <c r="K76" s="14">
+        <v>0</v>
+      </c>
+      <c r="L76" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="5"/>
+      <c r="S76" s="5"/>
+      <c r="T76" s="5"/>
+      <c r="U76" s="5"/>
+      <c r="V76" s="5"/>
+      <c r="W76" s="5"/>
+      <c r="X76" s="5"/>
+      <c r="Y76" s="5"/>
+      <c r="Z76" s="5"/>
+    </row>
+    <row r="77" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>311</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" t="s">
+        <v>337</v>
+      </c>
+      <c r="E77" t="s">
+        <v>338</v>
+      </c>
+      <c r="G77" t="s">
+        <v>19</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="I77" s="14">
+        <v>3750</v>
+      </c>
+      <c r="J77" s="14">
+        <v>103</v>
+      </c>
+      <c r="K77" s="14">
+        <v>2049</v>
+      </c>
+      <c r="L77" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="5"/>
+      <c r="R77" s="5"/>
+      <c r="S77" s="5"/>
+      <c r="T77" s="5"/>
+      <c r="U77" s="5"/>
+      <c r="V77" s="5"/>
+      <c r="W77" s="5"/>
+      <c r="X77" s="5"/>
+      <c r="Y77" s="5"/>
+      <c r="Z77" s="5"/>
+    </row>
+    <row r="78" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>311</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C78" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" t="s">
+        <v>341</v>
+      </c>
+      <c r="E78" t="s">
+        <v>342</v>
+      </c>
+      <c r="G78" t="s">
+        <v>19</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="I78" s="14">
+        <v>1427</v>
+      </c>
+      <c r="J78" s="14">
+        <v>6</v>
+      </c>
+      <c r="K78" s="14">
+        <v>1871</v>
+      </c>
+      <c r="L78" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="5"/>
+      <c r="S78" s="5"/>
+      <c r="T78" s="5"/>
+      <c r="U78" s="5"/>
+      <c r="V78" s="5"/>
+      <c r="W78" s="5"/>
+      <c r="X78" s="5"/>
+      <c r="Y78" s="5"/>
+      <c r="Z78" s="5"/>
+    </row>
+    <row r="79" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>344</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C79" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" t="s">
+        <v>350</v>
+      </c>
+      <c r="E79" t="s">
+        <v>351</v>
+      </c>
+      <c r="G79" t="s">
+        <v>19</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="I79" s="14">
+        <v>4181</v>
+      </c>
+      <c r="J79" s="14">
+        <v>1210</v>
+      </c>
+      <c r="K79" s="14">
+        <v>29070</v>
+      </c>
+      <c r="L79" s="11">
+        <v>34.39</v>
+      </c>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="5"/>
+      <c r="R79" s="5"/>
+      <c r="S79" s="5"/>
+      <c r="T79" s="5"/>
+      <c r="U79" s="5"/>
+      <c r="V79" s="5"/>
+      <c r="W79" s="5"/>
+      <c r="X79" s="5"/>
+      <c r="Y79" s="5"/>
+      <c r="Z79" s="5"/>
+    </row>
+    <row r="80" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>344</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" t="s">
+        <v>353</v>
+      </c>
+      <c r="E80" t="s">
+        <v>354</v>
+      </c>
+      <c r="F80" t="s">
+        <v>355</v>
+      </c>
+      <c r="G80" t="s">
+        <v>56</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="I80" s="14">
+        <v>4454</v>
+      </c>
+      <c r="J80" s="14">
+        <v>17</v>
+      </c>
+      <c r="K80" s="14">
+        <v>1558</v>
+      </c>
+      <c r="L80" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="5"/>
+      <c r="S80" s="5"/>
+      <c r="T80" s="5"/>
+      <c r="U80" s="5"/>
+      <c r="V80" s="5"/>
+      <c r="W80" s="5"/>
+      <c r="X80" s="5"/>
+      <c r="Y80" s="5"/>
+      <c r="Z80" s="5"/>
+    </row>
+    <row r="81" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>344</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C81" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" t="s">
+        <v>358</v>
+      </c>
+      <c r="E81" t="s">
+        <v>359</v>
+      </c>
+      <c r="G81" t="s">
+        <v>19</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="I81" s="14">
+        <v>2499</v>
+      </c>
+      <c r="J81" s="14">
+        <v>43</v>
+      </c>
+      <c r="K81" s="14">
+        <v>1259</v>
+      </c>
+      <c r="L81" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="5"/>
+      <c r="Q81" s="5"/>
+      <c r="R81" s="5"/>
+      <c r="S81" s="5"/>
+      <c r="T81" s="5"/>
+      <c r="U81" s="5"/>
+      <c r="V81" s="5"/>
+      <c r="W81" s="5"/>
+      <c r="X81" s="5"/>
+      <c r="Y81" s="5"/>
+      <c r="Z81" s="5"/>
+    </row>
+    <row r="82" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>361</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" t="s">
+        <v>363</v>
+      </c>
+      <c r="E82" t="s">
+        <v>364</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="I82" s="14">
+        <v>335</v>
+      </c>
+      <c r="J82" s="14">
+        <v>374</v>
+      </c>
+      <c r="K82" s="14">
+        <v>23</v>
+      </c>
+      <c r="L82" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M82" s="5"/>
+      <c r="N82" s="5"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="5"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="5"/>
+      <c r="S82" s="5"/>
+      <c r="T82" s="5"/>
+      <c r="U82" s="5"/>
+      <c r="V82" s="5"/>
+      <c r="W82" s="5"/>
+      <c r="X82" s="5"/>
+      <c r="Y82" s="5"/>
+      <c r="Z82" s="5"/>
+    </row>
+    <row r="83" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>361</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C83" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" t="s">
+        <v>367</v>
+      </c>
+      <c r="E83" t="s">
+        <v>368</v>
+      </c>
+      <c r="G83" t="s">
+        <v>34</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="I83" s="14">
+        <v>819</v>
+      </c>
+      <c r="J83" s="14">
+        <v>351</v>
+      </c>
+      <c r="K83" s="14">
+        <v>573</v>
+      </c>
+      <c r="L83" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="5"/>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="5"/>
+      <c r="S83" s="5"/>
+      <c r="T83" s="5"/>
+      <c r="U83" s="5"/>
+      <c r="V83" s="5"/>
+      <c r="W83" s="5"/>
+      <c r="X83" s="5"/>
+      <c r="Y83" s="5"/>
+      <c r="Z83" s="5"/>
+    </row>
+    <row r="84" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>361</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" t="s">
+        <v>371</v>
+      </c>
+      <c r="E84" t="s">
+        <v>372</v>
+      </c>
+      <c r="F84" t="s">
+        <v>355</v>
+      </c>
+      <c r="G84" t="s">
+        <v>56</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="I84" s="14">
+        <v>5413</v>
+      </c>
+      <c r="J84" s="14">
+        <v>6</v>
+      </c>
+      <c r="K84" s="14">
+        <v>2562</v>
+      </c>
+      <c r="L84" s="11">
+        <v>10.39</v>
+      </c>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="5"/>
+      <c r="Q84" s="5"/>
+      <c r="R84" s="5"/>
+      <c r="S84" s="5"/>
+      <c r="T84" s="5"/>
+      <c r="U84" s="5"/>
+      <c r="V84" s="5"/>
+      <c r="W84" s="5"/>
+      <c r="X84" s="5"/>
+      <c r="Y84" s="5"/>
+      <c r="Z84" s="5"/>
+    </row>
+    <row r="85" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>361</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" t="s">
+        <v>375</v>
+      </c>
+      <c r="E85" t="s">
+        <v>292</v>
+      </c>
+      <c r="G85" t="s">
+        <v>19</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I85" s="14">
+        <v>10388</v>
+      </c>
+      <c r="J85" s="14">
+        <v>1355</v>
+      </c>
+      <c r="K85" s="14">
+        <v>19617</v>
+      </c>
+      <c r="L85" s="11">
+        <v>31.29</v>
+      </c>
+      <c r="M85" s="5"/>
+      <c r="N85" s="5"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="5"/>
+      <c r="Q85" s="5"/>
+      <c r="R85" s="5"/>
+      <c r="S85" s="5"/>
+      <c r="T85" s="5"/>
+      <c r="U85" s="5"/>
+      <c r="V85" s="5"/>
+      <c r="W85" s="5"/>
+      <c r="X85" s="5"/>
+      <c r="Y85" s="5"/>
+      <c r="Z85" s="5"/>
+    </row>
+    <row r="86" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>361</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C86" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" t="s">
+        <v>377</v>
+      </c>
+      <c r="E86" t="s">
+        <v>378</v>
+      </c>
+      <c r="F86" t="s">
+        <v>379</v>
+      </c>
+      <c r="G86" t="s">
+        <v>34</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="I86" s="14">
+        <v>995</v>
+      </c>
+      <c r="J86" s="14">
+        <v>246</v>
+      </c>
+      <c r="K86" s="14">
+        <v>672</v>
+      </c>
+      <c r="L86" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="5"/>
+      <c r="Q86" s="5"/>
+      <c r="R86" s="5"/>
+      <c r="S86" s="5"/>
+      <c r="T86" s="5"/>
+      <c r="U86" s="5"/>
+      <c r="V86" s="5"/>
+      <c r="W86" s="5"/>
+      <c r="X86" s="5"/>
+      <c r="Y86" s="5"/>
+      <c r="Z86" s="5"/>
+    </row>
+    <row r="87" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>361</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C87" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" t="s">
+        <v>382</v>
+      </c>
+      <c r="E87" t="s">
+        <v>383</v>
+      </c>
+      <c r="G87" t="s">
+        <v>19</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="I87" s="14">
+        <v>7</v>
+      </c>
+      <c r="J87" s="14">
+        <v>0</v>
+      </c>
+      <c r="K87" s="14">
+        <v>0</v>
+      </c>
+      <c r="L87" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="M87" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="5"/>
+      <c r="R87" s="5"/>
+      <c r="S87" s="5"/>
+      <c r="T87" s="5"/>
+      <c r="U87" s="5"/>
+      <c r="V87" s="5"/>
+      <c r="W87" s="5"/>
+      <c r="X87" s="5"/>
+      <c r="Y87" s="5"/>
+      <c r="Z87" s="5"/>
+    </row>
+    <row r="88" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>361</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C88" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" t="s">
+        <v>385</v>
+      </c>
+      <c r="E88" t="s">
+        <v>386</v>
+      </c>
+      <c r="G88" t="s">
+        <v>56</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="I88" s="14">
+        <v>459</v>
+      </c>
+      <c r="J88" s="14">
+        <v>157</v>
+      </c>
+      <c r="K88" s="14">
+        <v>1371</v>
+      </c>
+      <c r="L88" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="5"/>
+      <c r="S88" s="5"/>
+      <c r="T88" s="5"/>
+      <c r="U88" s="5"/>
+      <c r="V88" s="5"/>
+      <c r="W88" s="5"/>
+      <c r="X88" s="5"/>
+      <c r="Y88" s="5"/>
+      <c r="Z88" s="5"/>
+    </row>
+    <row r="89" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>361</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" t="s">
+        <v>389</v>
+      </c>
+      <c r="E89" t="s">
+        <v>390</v>
+      </c>
+      <c r="G89" t="s">
+        <v>19</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="I89" s="14">
+        <v>9284</v>
+      </c>
+      <c r="J89" s="14">
+        <v>1</v>
+      </c>
+      <c r="K89" s="14">
+        <v>951</v>
+      </c>
+      <c r="L89" s="11">
+        <v>14.29</v>
+      </c>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="5"/>
+      <c r="Q89" s="5"/>
+      <c r="R89" s="5"/>
+      <c r="S89" s="5"/>
+      <c r="T89" s="5"/>
+      <c r="U89" s="5"/>
+      <c r="V89" s="5"/>
+      <c r="W89" s="5"/>
+      <c r="X89" s="5"/>
+      <c r="Y89" s="5"/>
+      <c r="Z89" s="5"/>
+    </row>
+    <row r="90" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>361</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C90" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" t="s">
+        <v>392</v>
+      </c>
+      <c r="E90" t="s">
+        <v>393</v>
+      </c>
+      <c r="G90" t="s">
+        <v>34</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="I90" s="14">
+        <v>981</v>
+      </c>
+      <c r="J90" s="14">
+        <v>74</v>
+      </c>
+      <c r="K90" s="14">
+        <v>29</v>
+      </c>
+      <c r="L90" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="5"/>
+      <c r="Q90" s="5"/>
+      <c r="R90" s="5"/>
+      <c r="S90" s="5"/>
+      <c r="T90" s="5"/>
+      <c r="U90" s="5"/>
+      <c r="V90" s="5"/>
+      <c r="W90" s="5"/>
+      <c r="X90" s="5"/>
+      <c r="Y90" s="5"/>
+      <c r="Z90" s="5"/>
+    </row>
+    <row r="91" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>361</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C91" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" t="s">
+        <v>396</v>
+      </c>
+      <c r="E91" t="s">
+        <v>397</v>
+      </c>
+      <c r="G91" t="s">
+        <v>19</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="I91" s="14">
+        <v>8533</v>
+      </c>
+      <c r="J91" s="14">
+        <v>124</v>
+      </c>
+      <c r="K91" s="14">
+        <v>6099</v>
+      </c>
+      <c r="L91" s="11">
+        <v>14.69</v>
+      </c>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
+      <c r="O91" s="5"/>
+      <c r="P91" s="5"/>
+      <c r="Q91" s="5"/>
+      <c r="R91" s="5"/>
+      <c r="S91" s="5"/>
+      <c r="T91" s="5"/>
+      <c r="U91" s="5"/>
+      <c r="V91" s="5"/>
+      <c r="W91" s="5"/>
+      <c r="X91" s="5"/>
+      <c r="Y91" s="5"/>
+      <c r="Z91" s="5"/>
+    </row>
+    <row r="92" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>361</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C92" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" t="s">
+        <v>400</v>
+      </c>
+      <c r="E92" t="s">
+        <v>401</v>
+      </c>
+      <c r="G92" t="s">
+        <v>19</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="I92" s="14">
+        <v>7801</v>
+      </c>
+      <c r="J92" s="14">
+        <v>669</v>
+      </c>
+      <c r="K92" s="14">
+        <v>7315</v>
+      </c>
+      <c r="L92" s="11">
+        <v>15.79</v>
+      </c>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="5"/>
+      <c r="Q92" s="5"/>
+      <c r="R92" s="5"/>
+      <c r="S92" s="5"/>
+      <c r="T92" s="5"/>
+      <c r="U92" s="5"/>
+      <c r="V92" s="5"/>
+      <c r="W92" s="5"/>
+      <c r="X92" s="5"/>
+      <c r="Y92" s="5"/>
+      <c r="Z92" s="5"/>
+    </row>
+    <row r="93" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>361</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C93" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" t="s">
+        <v>404</v>
+      </c>
+      <c r="E93" t="s">
+        <v>368</v>
+      </c>
+      <c r="G93" t="s">
+        <v>19</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="I93" s="14">
+        <v>5530</v>
+      </c>
+      <c r="J93" s="14">
+        <v>7</v>
+      </c>
+      <c r="K93" s="14">
+        <v>1292</v>
+      </c>
+      <c r="L93" s="11">
+        <v>10.49</v>
+      </c>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5"/>
+      <c r="O93" s="5"/>
+      <c r="P93" s="5"/>
+      <c r="Q93" s="5"/>
+      <c r="R93" s="5"/>
+      <c r="S93" s="5"/>
+      <c r="T93" s="5"/>
+      <c r="U93" s="5"/>
+      <c r="V93" s="5"/>
+      <c r="W93" s="5"/>
+      <c r="X93" s="5"/>
+      <c r="Y93" s="5"/>
+      <c r="Z93" s="5"/>
+    </row>
+    <row r="94" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>361</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C94" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" t="s">
+        <v>407</v>
+      </c>
+      <c r="E94" t="s">
+        <v>408</v>
+      </c>
+      <c r="G94" t="s">
+        <v>19</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="I94" s="14">
+        <v>132983</v>
+      </c>
+      <c r="J94" s="14">
+        <v>99</v>
+      </c>
+      <c r="K94" s="14">
+        <v>5805</v>
+      </c>
+      <c r="L94" s="11">
+        <v>138.88999999999999</v>
+      </c>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="5"/>
+      <c r="R94" s="5"/>
+      <c r="S94" s="5"/>
+      <c r="T94" s="5"/>
+      <c r="U94" s="5"/>
+      <c r="V94" s="5"/>
+      <c r="W94" s="5"/>
+      <c r="X94" s="5"/>
+      <c r="Y94" s="5"/>
+      <c r="Z94" s="5"/>
+    </row>
+    <row r="95" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>410</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C95" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" t="s">
+        <v>412</v>
+      </c>
+      <c r="E95" t="s">
+        <v>413</v>
+      </c>
+      <c r="G95" t="s">
+        <v>56</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="I95" s="14">
+        <v>113</v>
+      </c>
+      <c r="J95" s="14">
+        <v>18</v>
+      </c>
+      <c r="K95" s="14">
+        <v>2</v>
+      </c>
+      <c r="L95" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="5"/>
+      <c r="Q95" s="5"/>
+      <c r="R95" s="5"/>
+      <c r="S95" s="5"/>
+      <c r="T95" s="5"/>
+      <c r="U95" s="5"/>
+      <c r="V95" s="5"/>
+      <c r="W95" s="5"/>
+      <c r="X95" s="5"/>
+      <c r="Y95" s="5"/>
+      <c r="Z95" s="5"/>
+    </row>
+    <row r="96" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>415</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C96" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" t="s">
+        <v>417</v>
+      </c>
+      <c r="E96" t="s">
+        <v>401</v>
+      </c>
+      <c r="G96" t="s">
+        <v>19</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="I96" s="14">
+        <v>25115</v>
+      </c>
+      <c r="J96" s="14">
+        <v>11</v>
+      </c>
+      <c r="K96" s="14">
+        <v>4964</v>
+      </c>
+      <c r="L96" s="11">
+        <v>30.09</v>
+      </c>
+      <c r="M96" s="5"/>
+      <c r="N96" s="5"/>
+      <c r="O96" s="5"/>
+      <c r="P96" s="5"/>
+      <c r="Q96" s="5"/>
+      <c r="R96" s="5"/>
+      <c r="S96" s="5"/>
+      <c r="T96" s="5"/>
+      <c r="U96" s="5"/>
+      <c r="V96" s="5"/>
+      <c r="W96" s="5"/>
+      <c r="X96" s="5"/>
+      <c r="Y96" s="5"/>
+      <c r="Z96" s="5"/>
+    </row>
+    <row r="97" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>415</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C97" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" t="s">
+        <v>419</v>
+      </c>
+      <c r="E97" t="s">
+        <v>301</v>
+      </c>
+      <c r="G97" t="s">
+        <v>56</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="I97" s="14">
+        <v>2112</v>
+      </c>
+      <c r="J97" s="14">
+        <v>65</v>
+      </c>
+      <c r="K97" s="14">
+        <v>472</v>
+      </c>
+      <c r="L97" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M97" s="5"/>
+      <c r="N97" s="5"/>
+      <c r="O97" s="5"/>
+      <c r="P97" s="5"/>
+      <c r="Q97" s="5"/>
+      <c r="R97" s="5"/>
+      <c r="S97" s="5"/>
+      <c r="T97" s="5"/>
+      <c r="U97" s="5"/>
+      <c r="V97" s="5"/>
+      <c r="W97" s="5"/>
+      <c r="X97" s="5"/>
+      <c r="Y97" s="5"/>
+      <c r="Z97" s="5"/>
+    </row>
+    <row r="98" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>415</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C98" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" t="s">
+        <v>422</v>
+      </c>
+      <c r="E98" t="s">
+        <v>423</v>
+      </c>
+      <c r="G98" t="s">
+        <v>19</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="I98" s="14">
+        <v>27</v>
+      </c>
+      <c r="J98" s="14">
+        <v>95</v>
+      </c>
+      <c r="K98" s="14">
+        <v>3</v>
+      </c>
+      <c r="L98" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M98" s="5"/>
+      <c r="N98" s="5"/>
+      <c r="O98" s="5"/>
+      <c r="P98" s="5"/>
+      <c r="Q98" s="5"/>
+      <c r="R98" s="5"/>
+      <c r="S98" s="5"/>
+      <c r="T98" s="5"/>
+      <c r="U98" s="5"/>
+      <c r="V98" s="5"/>
+      <c r="W98" s="5"/>
+      <c r="X98" s="5"/>
+      <c r="Y98" s="5"/>
+      <c r="Z98" s="5"/>
+    </row>
+    <row r="99" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>425</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C99" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" t="s">
+        <v>427</v>
+      </c>
+      <c r="E99" t="s">
+        <v>428</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="I99" s="14">
+        <v>4924</v>
+      </c>
+      <c r="J99" s="14">
+        <v>448</v>
+      </c>
+      <c r="K99" s="14">
+        <v>2206</v>
+      </c>
+      <c r="L99" s="11">
+        <v>10.29</v>
+      </c>
+      <c r="M99" s="5"/>
+      <c r="N99" s="5"/>
+      <c r="O99" s="5"/>
+      <c r="P99" s="5"/>
+      <c r="Q99" s="5"/>
+      <c r="R99" s="5"/>
+      <c r="S99" s="5"/>
+      <c r="T99" s="5"/>
+      <c r="U99" s="5"/>
+      <c r="V99" s="5"/>
+      <c r="W99" s="5"/>
+      <c r="X99" s="5"/>
+      <c r="Y99" s="5"/>
+      <c r="Z99" s="5"/>
+    </row>
+    <row r="100" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>425</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C100" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" t="s">
+        <v>431</v>
+      </c>
+      <c r="E100" t="s">
+        <v>432</v>
+      </c>
+      <c r="G100" t="s">
+        <v>19</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="I100" s="14">
+        <v>2530</v>
+      </c>
+      <c r="J100" s="14">
+        <v>118</v>
+      </c>
+      <c r="K100" s="14">
+        <v>587</v>
+      </c>
+      <c r="L100" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M100" s="5"/>
+      <c r="N100" s="5"/>
+      <c r="O100" s="5"/>
+      <c r="P100" s="5"/>
+      <c r="Q100" s="5"/>
+      <c r="R100" s="5"/>
+      <c r="S100" s="5"/>
+      <c r="T100" s="5"/>
+      <c r="U100" s="5"/>
+      <c r="V100" s="5"/>
+      <c r="W100" s="5"/>
+      <c r="X100" s="5"/>
+      <c r="Y100" s="5"/>
+      <c r="Z100" s="5"/>
+    </row>
+    <row r="101" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>425</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C101" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" t="s">
+        <v>434</v>
+      </c>
+      <c r="E101" t="s">
+        <v>435</v>
+      </c>
+      <c r="G101" t="s">
+        <v>56</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="I101" s="14">
+        <v>7</v>
+      </c>
+      <c r="J101" s="14">
+        <v>14</v>
+      </c>
+      <c r="K101" s="14">
+        <v>2</v>
+      </c>
+      <c r="L101" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M101" s="5"/>
+      <c r="N101" s="5"/>
+      <c r="O101" s="5"/>
+      <c r="P101" s="5"/>
+      <c r="Q101" s="5"/>
+      <c r="R101" s="5"/>
+      <c r="S101" s="5"/>
+      <c r="T101" s="5"/>
+      <c r="U101" s="5"/>
+      <c r="V101" s="5"/>
+      <c r="W101" s="5"/>
+      <c r="X101" s="5"/>
+      <c r="Y101" s="5"/>
+      <c r="Z101" s="5"/>
+    </row>
+    <row r="102" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>425</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C102" t="s">
+        <v>16</v>
+      </c>
+      <c r="D102" t="s">
+        <v>438</v>
+      </c>
+      <c r="E102" t="s">
+        <v>439</v>
+      </c>
+      <c r="G102" t="s">
+        <v>19</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="I102" s="14">
+        <v>68</v>
+      </c>
+      <c r="J102" s="14">
+        <v>0</v>
+      </c>
+      <c r="K102" s="14">
+        <v>4</v>
+      </c>
+      <c r="L102" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M102" s="5"/>
+      <c r="N102" s="5"/>
+      <c r="O102" s="5"/>
+      <c r="P102" s="5"/>
+      <c r="Q102" s="5"/>
+      <c r="R102" s="5"/>
+      <c r="S102" s="5"/>
+      <c r="T102" s="5"/>
+      <c r="U102" s="5"/>
+      <c r="V102" s="5"/>
+      <c r="W102" s="5"/>
+      <c r="X102" s="5"/>
+      <c r="Y102" s="5"/>
+      <c r="Z102" s="5"/>
+    </row>
+    <row r="103" spans="1:26" ht="68" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>441</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C103" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" t="s">
+        <v>443</v>
+      </c>
+      <c r="E103" t="s">
+        <v>444</v>
+      </c>
+      <c r="G103" t="s">
+        <v>34</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="I103" s="14">
+        <v>6</v>
+      </c>
+      <c r="J103" s="14">
+        <v>2</v>
+      </c>
+      <c r="K103" s="14">
+        <v>10</v>
+      </c>
+      <c r="L103" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M103" s="5"/>
+      <c r="N103" s="5"/>
+      <c r="O103" s="5"/>
+      <c r="P103" s="5"/>
+      <c r="Q103" s="5"/>
+      <c r="R103" s="5"/>
+      <c r="S103" s="5"/>
+      <c r="T103" s="5"/>
+      <c r="U103" s="5"/>
+      <c r="V103" s="5"/>
+      <c r="W103" s="5"/>
+      <c r="X103" s="5"/>
+      <c r="Y103" s="5"/>
+      <c r="Z103" s="5"/>
+    </row>
+    <row r="104" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>441</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C104" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" t="s">
+        <v>446</v>
+      </c>
+      <c r="E104" t="s">
+        <v>447</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="I104" s="14">
+        <v>6774</v>
+      </c>
+      <c r="J104" s="14">
+        <v>104</v>
+      </c>
+      <c r="K104" s="14">
+        <v>85</v>
+      </c>
+      <c r="L104" s="11">
+        <v>11.79</v>
+      </c>
+      <c r="M104" s="5"/>
+      <c r="N104" s="5"/>
+      <c r="O104" s="5"/>
+      <c r="P104" s="5"/>
+      <c r="Q104" s="5"/>
+      <c r="R104" s="5"/>
+      <c r="S104" s="5"/>
+      <c r="T104" s="5"/>
+      <c r="U104" s="5"/>
+      <c r="V104" s="5"/>
+      <c r="W104" s="5"/>
+      <c r="X104" s="5"/>
+      <c r="Y104" s="5"/>
+      <c r="Z104" s="5"/>
+    </row>
+    <row r="105" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>441</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C105" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" t="s">
+        <v>449</v>
+      </c>
+      <c r="E105" t="s">
+        <v>450</v>
+      </c>
+      <c r="G105" t="s">
+        <v>318</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="I105" s="14">
+        <v>22812</v>
+      </c>
+      <c r="J105" s="14">
+        <v>14</v>
+      </c>
+      <c r="K105" s="14">
+        <v>868</v>
+      </c>
+      <c r="L105" s="11">
+        <v>27.79</v>
+      </c>
+      <c r="M105" s="5"/>
+      <c r="N105" s="5"/>
+      <c r="O105" s="5"/>
+      <c r="P105" s="5"/>
+      <c r="Q105" s="5"/>
+      <c r="R105" s="5"/>
+      <c r="S105" s="5"/>
+      <c r="T105" s="5"/>
+      <c r="U105" s="5"/>
+      <c r="V105" s="5"/>
+      <c r="W105" s="5"/>
+      <c r="X105" s="5"/>
+      <c r="Y105" s="5"/>
+      <c r="Z105" s="5"/>
+    </row>
+    <row r="106" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>452</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C106" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106" t="s">
+        <v>454</v>
+      </c>
+      <c r="E106" t="s">
+        <v>455</v>
+      </c>
+      <c r="G106" t="s">
+        <v>19</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="I106" s="14">
+        <v>7140</v>
+      </c>
+      <c r="J106" s="14">
+        <v>81</v>
+      </c>
+      <c r="K106" s="14">
+        <v>3001</v>
+      </c>
+      <c r="L106" s="11">
+        <v>12.19</v>
+      </c>
+      <c r="M106" s="5"/>
+      <c r="N106" s="5"/>
+      <c r="O106" s="5"/>
+      <c r="P106" s="5"/>
+      <c r="Q106" s="5"/>
+      <c r="R106" s="5"/>
+      <c r="S106" s="5"/>
+      <c r="T106" s="5"/>
+      <c r="U106" s="5"/>
+      <c r="V106" s="5"/>
+      <c r="W106" s="5"/>
+      <c r="X106" s="5"/>
+      <c r="Y106" s="5"/>
+      <c r="Z106" s="5"/>
+    </row>
+    <row r="107" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>452</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C107" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107" t="s">
+        <v>458</v>
+      </c>
+      <c r="E107" t="s">
+        <v>213</v>
+      </c>
+      <c r="G107" t="s">
+        <v>19</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="I107" s="14">
+        <v>6164</v>
+      </c>
+      <c r="J107" s="14">
+        <v>173</v>
+      </c>
+      <c r="K107" s="14">
+        <v>732</v>
+      </c>
+      <c r="L107" s="11">
+        <v>11.29</v>
+      </c>
+      <c r="M107" s="5"/>
+      <c r="N107" s="5"/>
+      <c r="O107" s="5"/>
+      <c r="P107" s="5"/>
+      <c r="Q107" s="5"/>
+      <c r="R107" s="5"/>
+      <c r="S107" s="5"/>
+      <c r="T107" s="5"/>
+      <c r="U107" s="5"/>
+      <c r="V107" s="5"/>
+      <c r="W107" s="5"/>
+      <c r="X107" s="5"/>
+      <c r="Y107" s="5"/>
+      <c r="Z107" s="5"/>
+    </row>
+    <row r="108" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>460</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C108" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" t="s">
+        <v>462</v>
+      </c>
+      <c r="E108" t="s">
+        <v>463</v>
+      </c>
+      <c r="G108" t="s">
+        <v>19</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="I108" s="14">
+        <v>32</v>
+      </c>
+      <c r="J108" s="14">
+        <v>17</v>
+      </c>
+      <c r="K108" s="14">
+        <v>0</v>
+      </c>
+      <c r="L108" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="M108" s="5"/>
+      <c r="N108" s="5"/>
+      <c r="O108" s="5"/>
+      <c r="P108" s="5"/>
+      <c r="Q108" s="5"/>
+      <c r="R108" s="5"/>
+      <c r="S108" s="5"/>
+      <c r="T108" s="5"/>
+      <c r="U108" s="5"/>
+      <c r="V108" s="5"/>
+      <c r="W108" s="5"/>
+      <c r="X108" s="5"/>
+      <c r="Y108" s="5"/>
+      <c r="Z108" s="5"/>
+    </row>
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H110" t="s">
+        <v>473</v>
+      </c>
+      <c r="I110" s="15">
+        <f>AVERAGE(I2:I108)</f>
+        <v>11435.41121495327</v>
+      </c>
+      <c r="J110" s="15">
+        <f t="shared" ref="J110:K110" si="0">AVERAGE(J2:J108)</f>
+        <v>135.27102803738319</v>
+      </c>
+      <c r="K110" s="15">
+        <f t="shared" si="0"/>
+        <v>2102.7570093457944</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H111" t="s">
+        <v>474</v>
+      </c>
+      <c r="I111" s="15">
+        <f>MEDIAN(I2:I108)</f>
+        <v>2053</v>
+      </c>
+      <c r="J111" s="15">
+        <f t="shared" ref="J111:K111" si="1">MEDIAN(J2:J108)</f>
+        <v>51</v>
+      </c>
+      <c r="K111" s="15">
+        <f t="shared" si="1"/>
+        <v>694</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H112" t="s">
+        <v>475</v>
+      </c>
+      <c r="I112" s="15">
+        <f>MODE(I2:I108)</f>
+        <v>7</v>
+      </c>
+      <c r="J112" s="15">
+        <f t="shared" ref="J112:K112" si="2">MODE(J2:J108)</f>
+        <v>0</v>
+      </c>
+      <c r="K112" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="8:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" spans="8:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H114" t="s">
+        <v>476</v>
+      </c>
+      <c r="I114" s="15">
+        <f>MAX(I2:I108)</f>
+        <v>266458</v>
+      </c>
+      <c r="J114" s="15">
+        <f t="shared" ref="J114:K114" si="3">MAX(J2:J108)</f>
+        <v>1355</v>
+      </c>
+      <c r="K114" s="15">
+        <f t="shared" si="3"/>
+        <v>29070</v>
+      </c>
+    </row>
+    <row r="115" spans="8:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H115" t="s">
+        <v>477</v>
+      </c>
+      <c r="I115" s="15">
+        <f>MIN(I2:I108)</f>
+        <v>0</v>
+      </c>
+      <c r="J115" s="15">
+        <f t="shared" ref="J115:K115" si="4">MIN(J2:J108)</f>
+        <v>0</v>
+      </c>
+      <c r="K115" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="8:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" spans="8:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C108" xr:uid="{0537AF1C-6CDF-EF48-A772-57120F5BE95B}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G108" xr:uid="{6F05965C-2FD7-D34B-8038-A234FA5E79AF}">
+      <formula1>"Coadjutor Archbishop, Apostolic Administrator,Archbishop,Archbishop Emeritus,Auxiliary Bishop,Auxiliary Bishop-elect,Auxiliary Bishop Emeritus,Bishop,Bishop-elect,Bishop Emeritus,Coadjutor Bishop,Diocesan Administrator,Eparch,Ordinary Emeritus"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{72E832F5-062C-1F45-9048-8CB691102FAA}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{9DF4659B-324B-CA41-AA13-17FB27276325}"/>
+    <hyperlink ref="H6" r:id="rId3" xr:uid="{2603CACA-769E-0345-9766-7840599FE1CB}"/>
+    <hyperlink ref="H7" r:id="rId4" xr:uid="{4277AFDF-01A5-6A43-BD8E-7336548F6C2C}"/>
+    <hyperlink ref="H8" r:id="rId5" xr:uid="{7A8C8C6D-7771-3340-BB55-ABB163ED1690}"/>
+    <hyperlink ref="H9" r:id="rId6" xr:uid="{E21D5DD6-FABF-4B4E-977E-FEE2352BF77C}"/>
+    <hyperlink ref="H10" r:id="rId7" xr:uid="{EBE7065B-7B50-0645-9DF8-E131FE5FF42D}"/>
+    <hyperlink ref="H12" r:id="rId8" xr:uid="{9D3626DE-F886-2544-8C0B-AC736E737EDB}"/>
+    <hyperlink ref="H13" r:id="rId9" xr:uid="{E2FB93BB-B671-A341-83C1-784658639E2C}"/>
+    <hyperlink ref="H14" r:id="rId10" xr:uid="{FF5CF96B-FB87-3C45-9DD9-FE457D0A0846}"/>
+    <hyperlink ref="H16" r:id="rId11" xr:uid="{BFEA867F-4B23-D347-9165-9BB276B05CC1}"/>
+    <hyperlink ref="H17" r:id="rId12" xr:uid="{C8D53715-BDDB-DC4C-BF95-757210EBFD87}"/>
+    <hyperlink ref="H18" r:id="rId13" xr:uid="{29F84EF7-3B9C-824B-B8E0-1114015B6F1E}"/>
+    <hyperlink ref="H19" r:id="rId14" xr:uid="{CCC8669D-77E5-434D-BA79-4162C40A292C}"/>
+    <hyperlink ref="H20" r:id="rId15" xr:uid="{76F99C37-CE25-A044-9023-D7B1283D9034}"/>
+    <hyperlink ref="H21" r:id="rId16" xr:uid="{006FF745-833C-8142-8725-66DA0481CBF2}"/>
+    <hyperlink ref="H22" r:id="rId17" xr:uid="{33327179-13BB-FC44-8399-060E6450236E}"/>
+    <hyperlink ref="H23" r:id="rId18" xr:uid="{391600E5-E021-734F-803A-E9AE3CE374E9}"/>
+    <hyperlink ref="H24" r:id="rId19" xr:uid="{E3C56795-34FA-3549-B38D-12D24CC252E2}"/>
+    <hyperlink ref="H25" r:id="rId20" xr:uid="{46A68048-258F-334B-9C32-2EC10FD940D8}"/>
+    <hyperlink ref="H26" r:id="rId21" xr:uid="{D670DBB3-752D-C547-B533-79320C77C55D}"/>
+    <hyperlink ref="H27" r:id="rId22" display="@PaprockiBishop" xr:uid="{16782C35-86AB-9240-8211-692AA58D3593}"/>
+    <hyperlink ref="H28" r:id="rId23" xr:uid="{2F981891-FC35-A245-A2B7-68D7CC4697C5}"/>
+    <hyperlink ref="H29" r:id="rId24" xr:uid="{69BF1585-A82E-AC48-862A-C90B4C1EF036}"/>
+    <hyperlink ref="H30" r:id="rId25" xr:uid="{EB816B0F-3712-E443-88FC-919B96BEE5EC}"/>
+    <hyperlink ref="H31" r:id="rId26" xr:uid="{8062F537-CB54-C743-8090-CB217224E240}"/>
+    <hyperlink ref="H32" r:id="rId27" xr:uid="{D82B2362-133F-4C4A-B8D6-6D0788135711}"/>
+    <hyperlink ref="H33" r:id="rId28" xr:uid="{3E156056-B9D5-2746-A006-5CED9065351D}"/>
+    <hyperlink ref="H34" r:id="rId29" xr:uid="{AF7F8F07-CA1C-9341-AD45-18DFDCD86122}"/>
+    <hyperlink ref="H35" r:id="rId30" xr:uid="{D4B99951-2560-6347-B28A-62A4A0F77225}"/>
+    <hyperlink ref="H36" r:id="rId31" xr:uid="{F7F4F7E4-724C-5E4A-9345-7A039343A99B}"/>
+    <hyperlink ref="H37" r:id="rId32" xr:uid="{1DCE61E6-9172-8541-8668-280F5D14127E}"/>
+    <hyperlink ref="H38" r:id="rId33" xr:uid="{3F887163-0AA5-3042-B204-E755C5928D95}"/>
+    <hyperlink ref="H39" r:id="rId34" xr:uid="{0D159447-CC53-2E4D-BE57-42E5E0BFF50D}"/>
+    <hyperlink ref="H40" r:id="rId35" xr:uid="{73C549F2-9E8D-9541-9492-C7DC0F43401D}"/>
+    <hyperlink ref="H41" r:id="rId36" xr:uid="{AD933254-C5B1-864F-AA06-522891117FDC}"/>
+    <hyperlink ref="H42" r:id="rId37" xr:uid="{D765C5F5-2CD8-7D4E-BF9D-4E37372406C8}"/>
+    <hyperlink ref="H43" r:id="rId38" xr:uid="{CD0672C4-3E9E-6243-9E41-30B85A59A678}"/>
+    <hyperlink ref="H44" r:id="rId39" xr:uid="{47F1FEA4-53C9-B342-A040-BE865444E10C}"/>
+    <hyperlink ref="H45" r:id="rId40" xr:uid="{EE3C9666-D342-6B49-9302-68551FEEEA28}"/>
+    <hyperlink ref="H46" r:id="rId41" xr:uid="{995CF6C0-DB22-FA4B-8A45-65E2CF75D815}"/>
+    <hyperlink ref="H47" r:id="rId42" xr:uid="{1E4B0EEF-4B83-F449-B236-DAC3EDE70936}"/>
+    <hyperlink ref="H48" r:id="rId43" xr:uid="{A7368E4E-404B-C948-BFC6-8BCD9EC1B4CE}"/>
+    <hyperlink ref="H49" r:id="rId44" xr:uid="{CD41C935-6646-F449-AA71-2E6293125423}"/>
+    <hyperlink ref="H50" r:id="rId45" xr:uid="{DF08F792-9541-1F4A-A639-6F97FE1797A1}"/>
+    <hyperlink ref="H51" r:id="rId46" xr:uid="{CE80C719-5D36-4A4A-A91C-F5C820AE335E}"/>
+    <hyperlink ref="H52" r:id="rId47" xr:uid="{30F4B963-9CD9-7C4A-896D-FE1161FF5703}"/>
+    <hyperlink ref="H53" r:id="rId48" xr:uid="{5A490422-3C65-C041-9F90-A1A84929B84F}"/>
+    <hyperlink ref="H54" r:id="rId49" xr:uid="{8C03FF9E-B791-A948-B600-C4E3690FA31F}"/>
+    <hyperlink ref="H55" r:id="rId50" xr:uid="{AB430BE7-A79E-6241-8D2E-A8FA4FD60177}"/>
+    <hyperlink ref="H56" r:id="rId51" xr:uid="{C8FFD2D1-93F4-304B-B858-3FAADE1D1072}"/>
+    <hyperlink ref="H57" r:id="rId52" xr:uid="{A8307F83-7109-2F4E-A154-91A85B64FC14}"/>
+    <hyperlink ref="H58" r:id="rId53" xr:uid="{1DE71D3E-F4CE-3D49-A73A-8AE09BA800AC}"/>
+    <hyperlink ref="H59" r:id="rId54" xr:uid="{5B424389-FAA1-3548-9C22-7E987D52B9DB}"/>
+    <hyperlink ref="H60" r:id="rId55" xr:uid="{E22B98A8-4E78-A143-B184-6BE1E795397D}"/>
+    <hyperlink ref="H61" r:id="rId56" xr:uid="{F606B8FB-75CA-6349-A4F2-5B8261C4E917}"/>
+    <hyperlink ref="H62" r:id="rId57" xr:uid="{B97C4C15-C4AC-BA45-BF6B-7A20C376648D}"/>
+    <hyperlink ref="H63" r:id="rId58" xr:uid="{32B7D39C-38D6-8744-99A2-2A3F1212DD8C}"/>
+    <hyperlink ref="H64" r:id="rId59" xr:uid="{F3E7B420-6B8E-E14D-ACB6-E4C6C50F7E35}"/>
+    <hyperlink ref="H65" r:id="rId60" xr:uid="{B9676F36-F237-F14B-8D7D-3976A3E286BB}"/>
+    <hyperlink ref="H66" r:id="rId61" xr:uid="{EE6D43A6-1AF9-4747-B112-EA9DCF493988}"/>
+    <hyperlink ref="H67" r:id="rId62" xr:uid="{D7641776-C890-764C-B1EA-16FD1E89477F}"/>
+    <hyperlink ref="H68" r:id="rId63" xr:uid="{B81441B0-87BE-F344-9712-B66B5E9951D2}"/>
+    <hyperlink ref="H69" r:id="rId64" xr:uid="{7C52A738-BF93-A342-94FA-235A46796EC4}"/>
+    <hyperlink ref="H70" r:id="rId65" xr:uid="{B717C216-CA90-D247-A07D-BFC60EC6B14F}"/>
+    <hyperlink ref="H71" r:id="rId66" xr:uid="{083A9FB5-96F0-3444-B4FD-F9A26CBCCB61}"/>
+    <hyperlink ref="H72" r:id="rId67" xr:uid="{421309EB-DFF2-084F-88A4-792EDFB24DA3}"/>
+    <hyperlink ref="H73" r:id="rId68" xr:uid="{51ECBB48-9406-F640-8BFC-B94381F8CC55}"/>
+    <hyperlink ref="H74" r:id="rId69" xr:uid="{2016A9F1-0465-9448-89C9-BC4F842449E1}"/>
+    <hyperlink ref="H75" r:id="rId70" xr:uid="{9B4E9D78-4BEC-184E-82A5-76D9DB037B85}"/>
+    <hyperlink ref="H76" r:id="rId71" xr:uid="{1595279D-ED84-9A42-ACC8-F6B7BC240158}"/>
+    <hyperlink ref="H77" r:id="rId72" xr:uid="{19B2C12E-E6FF-DC42-A97A-1F38DA500936}"/>
+    <hyperlink ref="H78" r:id="rId73" xr:uid="{723DED66-52AA-824D-A492-589405185DB3}"/>
+    <hyperlink ref="H79" r:id="rId74" xr:uid="{27696249-AADB-5E44-A0A2-9BA350D2C295}"/>
+    <hyperlink ref="H80" r:id="rId75" xr:uid="{99BDF974-1E4F-CA44-8D40-DB4C2CEC77EF}"/>
+    <hyperlink ref="H81" r:id="rId76" xr:uid="{9C0CCE4C-5268-7046-9F9F-4FBB52E1E7E4}"/>
+    <hyperlink ref="H82" r:id="rId77" xr:uid="{79FF6B18-4B92-4342-A855-06B8CDB28426}"/>
+    <hyperlink ref="H83" r:id="rId78" xr:uid="{EBEC691F-9B12-CC43-AD11-7FFF453DAA9A}"/>
+    <hyperlink ref="H84" r:id="rId79" xr:uid="{0383E411-3078-814A-B298-AD3A04C305CB}"/>
+    <hyperlink ref="H85" r:id="rId80" xr:uid="{846F02C0-A064-1F45-9590-F353108FE30F}"/>
+    <hyperlink ref="H86" r:id="rId81" xr:uid="{BE09DED5-AAA5-574E-A04E-65964950F643}"/>
+    <hyperlink ref="H87" r:id="rId82" xr:uid="{7FDF567D-5196-9748-8B17-1002C1E2E42E}"/>
+    <hyperlink ref="H88" r:id="rId83" xr:uid="{45C13172-E169-CF47-9A97-2F47284BCF59}"/>
+    <hyperlink ref="H89" r:id="rId84" xr:uid="{BC2ADF10-E7DC-B54B-957E-61E77726A628}"/>
+    <hyperlink ref="H90" r:id="rId85" xr:uid="{6D0C0E40-D074-EA4A-A65E-207778CCFA13}"/>
+    <hyperlink ref="H91" r:id="rId86" xr:uid="{AF12C94F-E8E1-7744-A3E3-D8DAC794153A}"/>
+    <hyperlink ref="H92" r:id="rId87" xr:uid="{1D53E268-424C-CC4B-B666-26469B269AB0}"/>
+    <hyperlink ref="H93" r:id="rId88" xr:uid="{4B42FE56-9A4C-A946-ACD4-C89CE6F39A8D}"/>
+    <hyperlink ref="H94" r:id="rId89" xr:uid="{0F7AA3B8-397E-F847-BABB-4F22C4B95131}"/>
+    <hyperlink ref="H95" r:id="rId90" xr:uid="{47F63627-248A-124B-933D-00826839B792}"/>
+    <hyperlink ref="H96" r:id="rId91" xr:uid="{6F277546-E0D5-EF41-8888-4DC591277CC5}"/>
+    <hyperlink ref="H97" r:id="rId92" xr:uid="{027D95F1-8DBA-A746-967C-0632E4115ED3}"/>
+    <hyperlink ref="H98" r:id="rId93" xr:uid="{C17F3EFC-48FD-654C-9696-BA0F33932042}"/>
+    <hyperlink ref="H99" r:id="rId94" xr:uid="{C683885D-CED1-BC42-8C4A-6D37ED35C049}"/>
+    <hyperlink ref="H100" r:id="rId95" xr:uid="{EAD95D18-A1D9-604F-92BD-8734C65863AC}"/>
+    <hyperlink ref="H101" r:id="rId96" xr:uid="{DF822F7D-9633-9D4C-A71C-BAAA97DFA3B8}"/>
+    <hyperlink ref="H102" r:id="rId97" xr:uid="{E3E60336-03A3-6444-AFDC-5AA3F680F03B}"/>
+    <hyperlink ref="H103" r:id="rId98" xr:uid="{92B0233F-3411-F543-8A83-27E91FA0FB8B}"/>
+    <hyperlink ref="H104" r:id="rId99" xr:uid="{37FD6692-71C3-5F4C-839C-7578FAE8E67F}"/>
+    <hyperlink ref="H105" r:id="rId100" xr:uid="{70FEBF31-FD5F-FA46-864D-7EAFC192486F}"/>
+    <hyperlink ref="H106" r:id="rId101" xr:uid="{1C3BB8E6-64E4-614F-A070-199DB86BE67E}"/>
+    <hyperlink ref="H107" r:id="rId102" xr:uid="{14A927CB-EC95-1D43-AD04-657F1975319C}"/>
+    <hyperlink ref="H108" r:id="rId103" xr:uid="{B70E035C-971E-8E4C-8FBA-9A387413B63A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId104"/>
+</worksheet>
 </file>
--- a/Twitter_bishops.xlsx
+++ b/Twitter_bishops.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acavender/Documents/Data analysis/bishopsAndTwitter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D2CC63-F5EF-7749-9869-3FE8F2ED515C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259B2744-E8A6-844A-912F-01B069C69E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{34090DEA-69FC-D846-84F2-4CAD68C07F9F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{34090DEA-69FC-D846-84F2-4CAD68C07F9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Clean" sheetId="2" r:id="rId1"/>
     <sheet name="Original" sheetId="1" r:id="rId2"/>
     <sheet name="Calculations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2352" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="478">
   <si>
     <t>State</t>
   </si>
@@ -2141,11 +2141,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80807877-8080-254F-A2A4-CAEF3F01F238}">
-  <dimension ref="A1:Z117"/>
+  <dimension ref="A1:X117"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H110" sqref="H110:L116"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2158,11 +2158,9 @@
     <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="10.83203125" style="15"/>
-    <col min="12" max="12" width="13.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2196,12 +2194,8 @@
       <c r="K1" s="13" t="s">
         <v>466</v>
       </c>
-      <c r="L1" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>469</v>
-      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -2213,10 +2207,8 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2247,9 +2239,7 @@
       <c r="K2" s="14">
         <v>1398</v>
       </c>
-      <c r="L2" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
@@ -2262,10 +2252,8 @@
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-    </row>
-    <row r="3" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2296,9 +2284,7 @@
       <c r="K3" s="14">
         <v>19</v>
       </c>
-      <c r="L3" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -2311,10 +2297,8 @@
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -2345,9 +2329,7 @@
       <c r="K4" s="14">
         <v>0</v>
       </c>
-      <c r="L4" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
@@ -2360,10 +2342,8 @@
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-    </row>
-    <row r="5" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -2394,9 +2374,7 @@
       <c r="K5" s="14">
         <v>791</v>
       </c>
-      <c r="L5" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
@@ -2409,10 +2387,8 @@
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -2443,9 +2419,7 @@
       <c r="K6" s="14">
         <v>14095</v>
       </c>
-      <c r="L6" s="11">
-        <v>70.69</v>
-      </c>
+      <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
@@ -2458,10 +2432,8 @@
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -2492,9 +2464,7 @@
       <c r="K7" s="14">
         <v>1726</v>
       </c>
-      <c r="L7" s="11">
-        <v>73.19</v>
-      </c>
+      <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
@@ -2507,10 +2477,8 @@
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -2541,9 +2509,7 @@
       <c r="K8" s="14">
         <v>2272</v>
       </c>
-      <c r="L8" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
@@ -2556,10 +2522,8 @@
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -2590,9 +2554,7 @@
       <c r="K9" s="14">
         <v>44</v>
       </c>
-      <c r="L9" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
@@ -2605,10 +2567,8 @@
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -2639,9 +2599,7 @@
       <c r="K10" s="14">
         <v>739</v>
       </c>
-      <c r="L10" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -2654,10 +2612,8 @@
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -2688,12 +2644,8 @@
       <c r="K11" s="14">
         <v>0</v>
       </c>
-      <c r="L11" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>472</v>
-      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
@@ -2705,10 +2657,8 @@
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -2739,9 +2689,7 @@
       <c r="K12" s="14">
         <v>4</v>
       </c>
-      <c r="L12" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
@@ -2754,10 +2702,8 @@
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-    </row>
-    <row r="13" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -2788,9 +2734,7 @@
       <c r="K13" s="14">
         <v>1557</v>
       </c>
-      <c r="L13" s="11">
-        <v>14.19</v>
-      </c>
+      <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
@@ -2803,10 +2747,8 @@
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-    </row>
-    <row r="14" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -2837,9 +2779,7 @@
       <c r="K14" s="14">
         <v>98</v>
       </c>
-      <c r="L14" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
@@ -2852,10 +2792,8 @@
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-    </row>
-    <row r="15" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -2886,9 +2824,7 @@
       <c r="K15" s="14">
         <v>15563</v>
       </c>
-      <c r="L15" s="11">
-        <v>29.19</v>
-      </c>
+      <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
@@ -2901,10 +2837,8 @@
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-    </row>
-    <row r="16" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -2935,9 +2869,7 @@
       <c r="K16" s="14">
         <v>5318</v>
       </c>
-      <c r="L16" s="11">
-        <v>12.99</v>
-      </c>
+      <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
@@ -2950,10 +2882,8 @@
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-    </row>
-    <row r="17" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -2984,9 +2914,7 @@
       <c r="K17" s="14">
         <v>2067</v>
       </c>
-      <c r="L17" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
@@ -2999,10 +2927,8 @@
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-    </row>
-    <row r="18" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -3033,9 +2959,7 @@
       <c r="K18" s="14">
         <v>28</v>
       </c>
-      <c r="L18" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
@@ -3048,10 +2972,8 @@
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-    </row>
-    <row r="19" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>85</v>
       </c>
@@ -3085,9 +3007,7 @@
       <c r="K19" s="14">
         <v>1479</v>
       </c>
-      <c r="L19" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
@@ -3100,10 +3020,8 @@
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-    </row>
-    <row r="20" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>85</v>
       </c>
@@ -3134,9 +3052,7 @@
       <c r="K20" s="14">
         <v>247</v>
       </c>
-      <c r="L20" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
@@ -3149,10 +3065,8 @@
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-    </row>
-    <row r="21" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>101</v>
       </c>
@@ -3183,9 +3097,7 @@
       <c r="K21" s="14">
         <v>0</v>
       </c>
-      <c r="L21" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
@@ -3198,10 +3110,8 @@
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-    </row>
-    <row r="22" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -3232,9 +3142,7 @@
       <c r="K22" s="14">
         <v>4739</v>
       </c>
-      <c r="L22" s="11">
-        <v>38.590000000000003</v>
-      </c>
+      <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
@@ -3247,10 +3155,8 @@
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-    </row>
-    <row r="23" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -3281,9 +3187,7 @@
       <c r="K23" s="14">
         <v>0</v>
       </c>
-      <c r="L23" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
@@ -3296,10 +3200,8 @@
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-    </row>
-    <row r="24" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>106</v>
       </c>
@@ -3330,9 +3232,7 @@
       <c r="K24" s="14">
         <v>3</v>
       </c>
-      <c r="L24" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
@@ -3345,10 +3245,8 @@
       <c r="V24" s="5"/>
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-    </row>
-    <row r="25" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>106</v>
       </c>
@@ -3379,9 +3277,7 @@
       <c r="K25" s="14">
         <v>447</v>
       </c>
-      <c r="L25" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
@@ -3394,10 +3290,8 @@
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-    </row>
-    <row r="26" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>106</v>
       </c>
@@ -3431,9 +3325,7 @@
       <c r="K26" s="14">
         <v>1950</v>
       </c>
-      <c r="L26" s="11">
-        <v>14.79</v>
-      </c>
+      <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
@@ -3446,10 +3338,8 @@
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-    </row>
-    <row r="27" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>106</v>
       </c>
@@ -3481,9 +3371,7 @@
       <c r="K27" s="14">
         <v>488</v>
       </c>
-      <c r="L27" s="11">
-        <v>15.39</v>
-      </c>
+      <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
@@ -3496,10 +3384,8 @@
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-    </row>
-    <row r="28" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>128</v>
       </c>
@@ -3530,9 +3416,7 @@
       <c r="K28" s="14">
         <v>3465</v>
       </c>
-      <c r="L28" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
@@ -3545,10 +3429,8 @@
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-    </row>
-    <row r="29" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>128</v>
       </c>
@@ -3579,9 +3461,7 @@
       <c r="K29" s="14">
         <v>562</v>
       </c>
-      <c r="L29" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
@@ -3594,10 +3474,8 @@
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-    </row>
-    <row r="30" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -3628,9 +3506,7 @@
       <c r="K30" s="14">
         <v>202</v>
       </c>
-      <c r="L30" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
@@ -3643,10 +3519,8 @@
       <c r="V30" s="5"/>
       <c r="W30" s="5"/>
       <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-    </row>
-    <row r="31" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>142</v>
       </c>
@@ -3677,9 +3551,7 @@
       <c r="K31" s="14">
         <v>188</v>
       </c>
-      <c r="L31" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
@@ -3692,10 +3564,8 @@
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-    </row>
-    <row r="32" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>147</v>
       </c>
@@ -3726,9 +3596,7 @@
       <c r="K32" s="14">
         <v>442</v>
       </c>
-      <c r="L32" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
@@ -3741,10 +3609,8 @@
       <c r="V32" s="5"/>
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-    </row>
-    <row r="33" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>147</v>
       </c>
@@ -3775,9 +3641,7 @@
       <c r="K33" s="14">
         <v>11</v>
       </c>
-      <c r="L33" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
@@ -3790,10 +3654,8 @@
       <c r="V33" s="5"/>
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-    </row>
-    <row r="34" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>147</v>
       </c>
@@ -3827,9 +3689,7 @@
       <c r="K34" s="14">
         <v>869</v>
       </c>
-      <c r="L34" s="11">
-        <v>11.69</v>
-      </c>
+      <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
@@ -3842,10 +3702,8 @@
       <c r="V34" s="5"/>
       <c r="W34" s="5"/>
       <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-    </row>
-    <row r="35" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>161</v>
       </c>
@@ -3876,9 +3734,7 @@
       <c r="K35" s="14">
         <v>0</v>
       </c>
-      <c r="L35" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
@@ -3891,10 +3747,8 @@
       <c r="V35" s="5"/>
       <c r="W35" s="5"/>
       <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-    </row>
-    <row r="36" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>161</v>
       </c>
@@ -3925,9 +3779,7 @@
       <c r="K36" s="14">
         <v>66</v>
       </c>
-      <c r="L36" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
@@ -3940,10 +3792,8 @@
       <c r="V36" s="5"/>
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
-    </row>
-    <row r="37" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>161</v>
       </c>
@@ -3974,9 +3824,7 @@
       <c r="K37" s="14">
         <v>0</v>
       </c>
-      <c r="L37" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
@@ -3989,10 +3837,8 @@
       <c r="V37" s="5"/>
       <c r="W37" s="5"/>
       <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
-    </row>
-    <row r="38" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>174</v>
       </c>
@@ -4026,9 +3872,7 @@
       <c r="K38" s="14">
         <v>1447</v>
       </c>
-      <c r="L38" s="11">
-        <v>60.89</v>
-      </c>
+      <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
@@ -4041,10 +3885,8 @@
       <c r="V38" s="5"/>
       <c r="W38" s="5"/>
       <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-    </row>
-    <row r="39" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>174</v>
       </c>
@@ -4075,9 +3917,7 @@
       <c r="K39" s="14">
         <v>2105</v>
       </c>
-      <c r="L39" s="11">
-        <v>11.49</v>
-      </c>
+      <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
@@ -4090,10 +3930,8 @@
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
       <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
-    </row>
-    <row r="40" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>174</v>
       </c>
@@ -4124,9 +3962,7 @@
       <c r="K40" s="14">
         <v>6303</v>
       </c>
-      <c r="L40" s="11">
-        <v>22.19</v>
-      </c>
+      <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
@@ -4139,10 +3975,8 @@
       <c r="V40" s="5"/>
       <c r="W40" s="5"/>
       <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-    </row>
-    <row r="41" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>174</v>
       </c>
@@ -4173,9 +4007,7 @@
       <c r="K41" s="14">
         <v>99</v>
       </c>
-      <c r="L41" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L41" s="5"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
@@ -4188,10 +4020,8 @@
       <c r="V41" s="5"/>
       <c r="W41" s="5"/>
       <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-    </row>
-    <row r="42" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>189</v>
       </c>
@@ -4222,9 +4052,7 @@
       <c r="K42" s="14">
         <v>2963</v>
       </c>
-      <c r="L42" s="11">
-        <v>14.09</v>
-      </c>
+      <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
@@ -4237,10 +4065,8 @@
       <c r="V42" s="5"/>
       <c r="W42" s="5"/>
       <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="5"/>
-    </row>
-    <row r="43" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>189</v>
       </c>
@@ -4271,9 +4097,7 @@
       <c r="K43" s="14">
         <v>694</v>
       </c>
-      <c r="L43" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
@@ -4286,10 +4110,8 @@
       <c r="V43" s="5"/>
       <c r="W43" s="5"/>
       <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
-    </row>
-    <row r="44" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>198</v>
       </c>
@@ -4320,9 +4142,7 @@
       <c r="K44" s="14">
         <v>99</v>
       </c>
-      <c r="L44" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
@@ -4335,10 +4155,8 @@
       <c r="V44" s="5"/>
       <c r="W44" s="5"/>
       <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-    </row>
-    <row r="45" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>198</v>
       </c>
@@ -4369,9 +4187,7 @@
       <c r="K45" s="14">
         <v>18</v>
       </c>
-      <c r="L45" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L45" s="5"/>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
@@ -4384,10 +4200,8 @@
       <c r="V45" s="5"/>
       <c r="W45" s="5"/>
       <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
-      <c r="Z45" s="5"/>
-    </row>
-    <row r="46" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>198</v>
       </c>
@@ -4418,9 +4232,7 @@
       <c r="K46" s="14">
         <v>2836</v>
       </c>
-      <c r="L46" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L46" s="5"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
@@ -4433,10 +4245,8 @@
       <c r="V46" s="5"/>
       <c r="W46" s="5"/>
       <c r="X46" s="5"/>
-      <c r="Y46" s="5"/>
-      <c r="Z46" s="5"/>
-    </row>
-    <row r="47" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>198</v>
       </c>
@@ -4467,9 +4277,7 @@
       <c r="K47" s="14">
         <v>438</v>
       </c>
-      <c r="L47" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L47" s="5"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
@@ -4482,10 +4290,8 @@
       <c r="V47" s="5"/>
       <c r="W47" s="5"/>
       <c r="X47" s="5"/>
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="5"/>
-    </row>
-    <row r="48" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>198</v>
       </c>
@@ -4516,9 +4322,7 @@
       <c r="K48" s="14">
         <v>7588</v>
       </c>
-      <c r="L48" s="11">
-        <v>251.59</v>
-      </c>
+      <c r="L48" s="5"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
@@ -4531,10 +4335,8 @@
       <c r="V48" s="5"/>
       <c r="W48" s="5"/>
       <c r="X48" s="5"/>
-      <c r="Y48" s="5"/>
-      <c r="Z48" s="5"/>
-    </row>
-    <row r="49" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>219</v>
       </c>
@@ -4565,9 +4367,7 @@
       <c r="K49" s="14">
         <v>239</v>
       </c>
-      <c r="L49" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L49" s="5"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
@@ -4580,10 +4380,8 @@
       <c r="V49" s="5"/>
       <c r="W49" s="5"/>
       <c r="X49" s="5"/>
-      <c r="Y49" s="5"/>
-      <c r="Z49" s="5"/>
-    </row>
-    <row r="50" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>219</v>
       </c>
@@ -4614,9 +4412,7 @@
       <c r="K50" s="14">
         <v>904</v>
       </c>
-      <c r="L50" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L50" s="5"/>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
@@ -4629,10 +4425,8 @@
       <c r="V50" s="5"/>
       <c r="W50" s="5"/>
       <c r="X50" s="5"/>
-      <c r="Y50" s="5"/>
-      <c r="Z50" s="5"/>
-    </row>
-    <row r="51" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>228</v>
       </c>
@@ -4663,9 +4457,7 @@
       <c r="K51" s="14">
         <v>2093</v>
       </c>
-      <c r="L51" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L51" s="5"/>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
@@ -4678,10 +4470,8 @@
       <c r="V51" s="5"/>
       <c r="W51" s="5"/>
       <c r="X51" s="5"/>
-      <c r="Y51" s="5"/>
-      <c r="Z51" s="5"/>
-    </row>
-    <row r="52" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>233</v>
       </c>
@@ -4712,9 +4502,7 @@
       <c r="K52" s="14">
         <v>0</v>
       </c>
-      <c r="L52" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
@@ -4727,10 +4515,8 @@
       <c r="V52" s="5"/>
       <c r="W52" s="5"/>
       <c r="X52" s="5"/>
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="5"/>
-    </row>
-    <row r="53" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>233</v>
       </c>
@@ -4761,9 +4547,7 @@
       <c r="K53" s="14">
         <v>1</v>
       </c>
-      <c r="L53" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
@@ -4776,10 +4560,8 @@
       <c r="V53" s="5"/>
       <c r="W53" s="5"/>
       <c r="X53" s="5"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
-    </row>
-    <row r="54" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>242</v>
       </c>
@@ -4810,9 +4592,7 @@
       <c r="K54" s="14">
         <v>3569</v>
       </c>
-      <c r="L54" s="11">
-        <v>18.190000000000001</v>
-      </c>
+      <c r="L54" s="5"/>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
@@ -4825,10 +4605,8 @@
       <c r="V54" s="5"/>
       <c r="W54" s="5"/>
       <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
-      <c r="Z54" s="5"/>
-    </row>
-    <row r="55" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>242</v>
       </c>
@@ -4859,9 +4637,7 @@
       <c r="K55" s="14">
         <v>6689</v>
       </c>
-      <c r="L55" s="11">
-        <v>11.69</v>
-      </c>
+      <c r="L55" s="5"/>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
@@ -4874,10 +4650,8 @@
       <c r="V55" s="5"/>
       <c r="W55" s="5"/>
       <c r="X55" s="5"/>
-      <c r="Y55" s="5"/>
-      <c r="Z55" s="5"/>
-    </row>
-    <row r="56" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>250</v>
       </c>
@@ -4908,9 +4682,7 @@
       <c r="K56" s="14">
         <v>796</v>
       </c>
-      <c r="L56" s="11">
-        <v>10.19</v>
-      </c>
+      <c r="L56" s="5"/>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
@@ -4923,10 +4695,8 @@
       <c r="V56" s="5"/>
       <c r="W56" s="5"/>
       <c r="X56" s="5"/>
-      <c r="Y56" s="5"/>
-      <c r="Z56" s="5"/>
-    </row>
-    <row r="57" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>255</v>
       </c>
@@ -4957,9 +4727,7 @@
       <c r="K57" s="14">
         <v>4154</v>
       </c>
-      <c r="L57" s="11">
-        <v>271.39</v>
-      </c>
+      <c r="L57" s="5"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
@@ -4972,10 +4740,8 @@
       <c r="V57" s="5"/>
       <c r="W57" s="5"/>
       <c r="X57" s="5"/>
-      <c r="Y57" s="5"/>
-      <c r="Z57" s="5"/>
-    </row>
-    <row r="58" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>255</v>
       </c>
@@ -5006,9 +4772,7 @@
       <c r="K58" s="14">
         <v>85</v>
       </c>
-      <c r="L58" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L58" s="5"/>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
@@ -5021,10 +4785,8 @@
       <c r="V58" s="5"/>
       <c r="W58" s="5"/>
       <c r="X58" s="5"/>
-      <c r="Y58" s="5"/>
-      <c r="Z58" s="5"/>
-    </row>
-    <row r="59" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>255</v>
       </c>
@@ -5055,9 +4817,7 @@
       <c r="K59" s="14">
         <v>382</v>
       </c>
-      <c r="L59" s="11">
-        <v>11.29</v>
-      </c>
+      <c r="L59" s="5"/>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
@@ -5070,10 +4830,8 @@
       <c r="V59" s="5"/>
       <c r="W59" s="5"/>
       <c r="X59" s="5"/>
-      <c r="Y59" s="5"/>
-      <c r="Z59" s="5"/>
-    </row>
-    <row r="60" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>255</v>
       </c>
@@ -5104,9 +4862,7 @@
       <c r="K60" s="14">
         <v>9</v>
       </c>
-      <c r="L60" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L60" s="5"/>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
@@ -5119,10 +4875,8 @@
       <c r="V60" s="5"/>
       <c r="W60" s="5"/>
       <c r="X60" s="5"/>
-      <c r="Y60" s="5"/>
-      <c r="Z60" s="5"/>
-    </row>
-    <row r="61" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>255</v>
       </c>
@@ -5153,9 +4907,7 @@
       <c r="K61" s="14">
         <v>8814</v>
       </c>
-      <c r="L61" s="11">
-        <v>15.09</v>
-      </c>
+      <c r="L61" s="5"/>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
@@ -5168,10 +4920,8 @@
       <c r="V61" s="5"/>
       <c r="W61" s="5"/>
       <c r="X61" s="5"/>
-      <c r="Y61" s="5"/>
-      <c r="Z61" s="5"/>
-    </row>
-    <row r="62" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>255</v>
       </c>
@@ -5202,9 +4952,7 @@
       <c r="K62" s="14">
         <v>356</v>
       </c>
-      <c r="L62" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L62" s="5"/>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
@@ -5217,10 +4965,8 @@
       <c r="V62" s="5"/>
       <c r="W62" s="5"/>
       <c r="X62" s="5"/>
-      <c r="Y62" s="5"/>
-      <c r="Z62" s="5"/>
-    </row>
-    <row r="63" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>276</v>
       </c>
@@ -5251,9 +4997,7 @@
       <c r="K63" s="14">
         <v>2665</v>
       </c>
-      <c r="L63" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L63" s="5"/>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
@@ -5266,10 +5010,8 @@
       <c r="V63" s="5"/>
       <c r="W63" s="5"/>
       <c r="X63" s="5"/>
-      <c r="Y63" s="5"/>
-      <c r="Z63" s="5"/>
-    </row>
-    <row r="64" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>281</v>
       </c>
@@ -5300,9 +5042,7 @@
       <c r="K64" s="14">
         <v>528</v>
       </c>
-      <c r="L64" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L64" s="5"/>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
@@ -5315,10 +5055,8 @@
       <c r="V64" s="5"/>
       <c r="W64" s="5"/>
       <c r="X64" s="5"/>
-      <c r="Y64" s="5"/>
-      <c r="Z64" s="5"/>
-    </row>
-    <row r="65" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>281</v>
       </c>
@@ -5349,9 +5087,7 @@
       <c r="K65" s="14">
         <v>1874</v>
       </c>
-      <c r="L65" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L65" s="5"/>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
@@ -5364,10 +5100,8 @@
       <c r="V65" s="5"/>
       <c r="W65" s="5"/>
       <c r="X65" s="5"/>
-      <c r="Y65" s="5"/>
-      <c r="Z65" s="5"/>
-    </row>
-    <row r="66" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>281</v>
       </c>
@@ -5398,9 +5132,7 @@
       <c r="K66" s="14">
         <v>1462</v>
       </c>
-      <c r="L66" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L66" s="5"/>
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
@@ -5413,10 +5145,8 @@
       <c r="V66" s="5"/>
       <c r="W66" s="5"/>
       <c r="X66" s="5"/>
-      <c r="Y66" s="5"/>
-      <c r="Z66" s="5"/>
-    </row>
-    <row r="67" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>281</v>
       </c>
@@ -5447,9 +5177,7 @@
       <c r="K67" s="14">
         <v>0</v>
       </c>
-      <c r="L67" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L67" s="5"/>
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
       <c r="O67" s="5"/>
@@ -5462,10 +5190,8 @@
       <c r="V67" s="5"/>
       <c r="W67" s="5"/>
       <c r="X67" s="5"/>
-      <c r="Y67" s="5"/>
-      <c r="Z67" s="5"/>
-    </row>
-    <row r="68" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>298</v>
       </c>
@@ -5496,9 +5222,7 @@
       <c r="K68" s="14">
         <v>949</v>
       </c>
-      <c r="L68" s="11">
-        <v>15.09</v>
-      </c>
+      <c r="L68" s="5"/>
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
@@ -5511,10 +5235,8 @@
       <c r="V68" s="5"/>
       <c r="W68" s="5"/>
       <c r="X68" s="5"/>
-      <c r="Y68" s="5"/>
-      <c r="Z68" s="5"/>
-    </row>
-    <row r="69" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>303</v>
       </c>
@@ -5545,9 +5267,7 @@
       <c r="K69" s="14">
         <v>1212</v>
       </c>
-      <c r="L69" s="11">
-        <v>20.59</v>
-      </c>
+      <c r="L69" s="5"/>
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
@@ -5560,10 +5280,8 @@
       <c r="V69" s="5"/>
       <c r="W69" s="5"/>
       <c r="X69" s="5"/>
-      <c r="Y69" s="5"/>
-      <c r="Z69" s="5"/>
-    </row>
-    <row r="70" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>303</v>
       </c>
@@ -5594,12 +5312,8 @@
       <c r="K70" s="14">
         <v>20</v>
       </c>
-      <c r="L70" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="M70" s="5" t="s">
-        <v>472</v>
-      </c>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
       <c r="N70" s="5"/>
       <c r="O70" s="5"/>
       <c r="P70" s="5"/>
@@ -5611,10 +5325,8 @@
       <c r="V70" s="5"/>
       <c r="W70" s="5"/>
       <c r="X70" s="5"/>
-      <c r="Y70" s="5"/>
-      <c r="Z70" s="5"/>
-    </row>
-    <row r="71" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>311</v>
       </c>
@@ -5645,9 +5357,7 @@
       <c r="K71" s="14">
         <v>4692</v>
       </c>
-      <c r="L71" s="11">
-        <v>11.19</v>
-      </c>
+      <c r="L71" s="5"/>
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
       <c r="O71" s="5"/>
@@ -5660,10 +5370,8 @@
       <c r="V71" s="5"/>
       <c r="W71" s="5"/>
       <c r="X71" s="5"/>
-      <c r="Y71" s="5"/>
-      <c r="Z71" s="5"/>
-    </row>
-    <row r="72" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>311</v>
       </c>
@@ -5694,9 +5402,7 @@
       <c r="K72" s="14">
         <v>65</v>
       </c>
-      <c r="L72" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L72" s="5"/>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
@@ -5709,10 +5415,8 @@
       <c r="V72" s="5"/>
       <c r="W72" s="5"/>
       <c r="X72" s="5"/>
-      <c r="Y72" s="5"/>
-      <c r="Z72" s="5"/>
-    </row>
-    <row r="73" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>311</v>
       </c>
@@ -5743,9 +5447,7 @@
       <c r="K73" s="14">
         <v>2453</v>
       </c>
-      <c r="L73" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L73" s="5"/>
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
@@ -5758,10 +5460,8 @@
       <c r="V73" s="5"/>
       <c r="W73" s="5"/>
       <c r="X73" s="5"/>
-      <c r="Y73" s="5"/>
-      <c r="Z73" s="5"/>
-    </row>
-    <row r="74" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>311</v>
       </c>
@@ -5792,9 +5492,7 @@
       <c r="K74" s="14">
         <v>0</v>
       </c>
-      <c r="L74" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L74" s="5"/>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
@@ -5807,10 +5505,8 @@
       <c r="V74" s="5"/>
       <c r="W74" s="5"/>
       <c r="X74" s="5"/>
-      <c r="Y74" s="5"/>
-      <c r="Z74" s="5"/>
-    </row>
-    <row r="75" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>311</v>
       </c>
@@ -5841,9 +5537,7 @@
       <c r="K75" s="14">
         <v>465</v>
       </c>
-      <c r="L75" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L75" s="5"/>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
       <c r="O75" s="5"/>
@@ -5856,10 +5550,8 @@
       <c r="V75" s="5"/>
       <c r="W75" s="5"/>
       <c r="X75" s="5"/>
-      <c r="Y75" s="5"/>
-      <c r="Z75" s="5"/>
-    </row>
-    <row r="76" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>311</v>
       </c>
@@ -5890,9 +5582,7 @@
       <c r="K76" s="14">
         <v>0</v>
       </c>
-      <c r="L76" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L76" s="5"/>
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
       <c r="O76" s="5"/>
@@ -5905,10 +5595,8 @@
       <c r="V76" s="5"/>
       <c r="W76" s="5"/>
       <c r="X76" s="5"/>
-      <c r="Y76" s="5"/>
-      <c r="Z76" s="5"/>
-    </row>
-    <row r="77" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>311</v>
       </c>
@@ -5939,9 +5627,7 @@
       <c r="K77" s="14">
         <v>2049</v>
       </c>
-      <c r="L77" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L77" s="5"/>
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
       <c r="O77" s="5"/>
@@ -5954,10 +5640,8 @@
       <c r="V77" s="5"/>
       <c r="W77" s="5"/>
       <c r="X77" s="5"/>
-      <c r="Y77" s="5"/>
-      <c r="Z77" s="5"/>
-    </row>
-    <row r="78" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>311</v>
       </c>
@@ -5988,9 +5672,7 @@
       <c r="K78" s="14">
         <v>1871</v>
       </c>
-      <c r="L78" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L78" s="5"/>
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
       <c r="O78" s="5"/>
@@ -6003,10 +5685,8 @@
       <c r="V78" s="5"/>
       <c r="W78" s="5"/>
       <c r="X78" s="5"/>
-      <c r="Y78" s="5"/>
-      <c r="Z78" s="5"/>
-    </row>
-    <row r="79" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>344</v>
       </c>
@@ -6037,9 +5717,7 @@
       <c r="K79" s="14">
         <v>29070</v>
       </c>
-      <c r="L79" s="11">
-        <v>34.39</v>
-      </c>
+      <c r="L79" s="5"/>
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
       <c r="O79" s="5"/>
@@ -6052,10 +5730,8 @@
       <c r="V79" s="5"/>
       <c r="W79" s="5"/>
       <c r="X79" s="5"/>
-      <c r="Y79" s="5"/>
-      <c r="Z79" s="5"/>
-    </row>
-    <row r="80" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>344</v>
       </c>
@@ -6089,9 +5765,7 @@
       <c r="K80" s="14">
         <v>1558</v>
       </c>
-      <c r="L80" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L80" s="5"/>
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
@@ -6104,10 +5778,8 @@
       <c r="V80" s="5"/>
       <c r="W80" s="5"/>
       <c r="X80" s="5"/>
-      <c r="Y80" s="5"/>
-      <c r="Z80" s="5"/>
-    </row>
-    <row r="81" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>344</v>
       </c>
@@ -6138,9 +5810,7 @@
       <c r="K81" s="14">
         <v>1259</v>
       </c>
-      <c r="L81" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L81" s="5"/>
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
@@ -6153,10 +5823,8 @@
       <c r="V81" s="5"/>
       <c r="W81" s="5"/>
       <c r="X81" s="5"/>
-      <c r="Y81" s="5"/>
-      <c r="Z81" s="5"/>
-    </row>
-    <row r="82" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>361</v>
       </c>
@@ -6187,9 +5855,7 @@
       <c r="K82" s="14">
         <v>23</v>
       </c>
-      <c r="L82" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L82" s="5"/>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
@@ -6202,10 +5868,8 @@
       <c r="V82" s="5"/>
       <c r="W82" s="5"/>
       <c r="X82" s="5"/>
-      <c r="Y82" s="5"/>
-      <c r="Z82" s="5"/>
-    </row>
-    <row r="83" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>361</v>
       </c>
@@ -6236,9 +5900,7 @@
       <c r="K83" s="14">
         <v>573</v>
       </c>
-      <c r="L83" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L83" s="5"/>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
@@ -6251,10 +5913,8 @@
       <c r="V83" s="5"/>
       <c r="W83" s="5"/>
       <c r="X83" s="5"/>
-      <c r="Y83" s="5"/>
-      <c r="Z83" s="5"/>
-    </row>
-    <row r="84" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>361</v>
       </c>
@@ -6288,9 +5948,7 @@
       <c r="K84" s="14">
         <v>2562</v>
       </c>
-      <c r="L84" s="11">
-        <v>10.39</v>
-      </c>
+      <c r="L84" s="5"/>
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
@@ -6303,10 +5961,8 @@
       <c r="V84" s="5"/>
       <c r="W84" s="5"/>
       <c r="X84" s="5"/>
-      <c r="Y84" s="5"/>
-      <c r="Z84" s="5"/>
-    </row>
-    <row r="85" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>361</v>
       </c>
@@ -6337,9 +5993,7 @@
       <c r="K85" s="14">
         <v>19617</v>
       </c>
-      <c r="L85" s="11">
-        <v>31.29</v>
-      </c>
+      <c r="L85" s="5"/>
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
@@ -6352,10 +6006,8 @@
       <c r="V85" s="5"/>
       <c r="W85" s="5"/>
       <c r="X85" s="5"/>
-      <c r="Y85" s="5"/>
-      <c r="Z85" s="5"/>
-    </row>
-    <row r="86" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>361</v>
       </c>
@@ -6389,9 +6041,7 @@
       <c r="K86" s="14">
         <v>672</v>
       </c>
-      <c r="L86" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L86" s="5"/>
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
       <c r="O86" s="5"/>
@@ -6404,10 +6054,8 @@
       <c r="V86" s="5"/>
       <c r="W86" s="5"/>
       <c r="X86" s="5"/>
-      <c r="Y86" s="5"/>
-      <c r="Z86" s="5"/>
-    </row>
-    <row r="87" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>361</v>
       </c>
@@ -6438,12 +6086,8 @@
       <c r="K87" s="14">
         <v>0</v>
       </c>
-      <c r="L87" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="M87" s="5" t="s">
-        <v>472</v>
-      </c>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
       <c r="N87" s="5"/>
       <c r="O87" s="5"/>
       <c r="P87" s="5"/>
@@ -6455,10 +6099,8 @@
       <c r="V87" s="5"/>
       <c r="W87" s="5"/>
       <c r="X87" s="5"/>
-      <c r="Y87" s="5"/>
-      <c r="Z87" s="5"/>
-    </row>
-    <row r="88" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>361</v>
       </c>
@@ -6489,9 +6131,7 @@
       <c r="K88" s="14">
         <v>1371</v>
       </c>
-      <c r="L88" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L88" s="5"/>
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
       <c r="O88" s="5"/>
@@ -6504,10 +6144,8 @@
       <c r="V88" s="5"/>
       <c r="W88" s="5"/>
       <c r="X88" s="5"/>
-      <c r="Y88" s="5"/>
-      <c r="Z88" s="5"/>
-    </row>
-    <row r="89" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>361</v>
       </c>
@@ -6538,9 +6176,7 @@
       <c r="K89" s="14">
         <v>951</v>
       </c>
-      <c r="L89" s="11">
-        <v>14.29</v>
-      </c>
+      <c r="L89" s="5"/>
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
       <c r="O89" s="5"/>
@@ -6553,10 +6189,8 @@
       <c r="V89" s="5"/>
       <c r="W89" s="5"/>
       <c r="X89" s="5"/>
-      <c r="Y89" s="5"/>
-      <c r="Z89" s="5"/>
-    </row>
-    <row r="90" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>361</v>
       </c>
@@ -6587,9 +6221,7 @@
       <c r="K90" s="14">
         <v>29</v>
       </c>
-      <c r="L90" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L90" s="5"/>
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
       <c r="O90" s="5"/>
@@ -6602,10 +6234,8 @@
       <c r="V90" s="5"/>
       <c r="W90" s="5"/>
       <c r="X90" s="5"/>
-      <c r="Y90" s="5"/>
-      <c r="Z90" s="5"/>
-    </row>
-    <row r="91" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>361</v>
       </c>
@@ -6636,9 +6266,7 @@
       <c r="K91" s="14">
         <v>6099</v>
       </c>
-      <c r="L91" s="11">
-        <v>14.69</v>
-      </c>
+      <c r="L91" s="5"/>
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
       <c r="O91" s="5"/>
@@ -6651,10 +6279,8 @@
       <c r="V91" s="5"/>
       <c r="W91" s="5"/>
       <c r="X91" s="5"/>
-      <c r="Y91" s="5"/>
-      <c r="Z91" s="5"/>
-    </row>
-    <row r="92" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>361</v>
       </c>
@@ -6685,9 +6311,7 @@
       <c r="K92" s="14">
         <v>7315</v>
       </c>
-      <c r="L92" s="11">
-        <v>15.79</v>
-      </c>
+      <c r="L92" s="5"/>
       <c r="M92" s="5"/>
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
@@ -6700,10 +6324,8 @@
       <c r="V92" s="5"/>
       <c r="W92" s="5"/>
       <c r="X92" s="5"/>
-      <c r="Y92" s="5"/>
-      <c r="Z92" s="5"/>
-    </row>
-    <row r="93" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>361</v>
       </c>
@@ -6734,9 +6356,7 @@
       <c r="K93" s="14">
         <v>1292</v>
       </c>
-      <c r="L93" s="11">
-        <v>10.49</v>
-      </c>
+      <c r="L93" s="5"/>
       <c r="M93" s="5"/>
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
@@ -6749,10 +6369,8 @@
       <c r="V93" s="5"/>
       <c r="W93" s="5"/>
       <c r="X93" s="5"/>
-      <c r="Y93" s="5"/>
-      <c r="Z93" s="5"/>
-    </row>
-    <row r="94" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>361</v>
       </c>
@@ -6783,9 +6401,7 @@
       <c r="K94" s="14">
         <v>5805</v>
       </c>
-      <c r="L94" s="11">
-        <v>138.88999999999999</v>
-      </c>
+      <c r="L94" s="5"/>
       <c r="M94" s="5"/>
       <c r="N94" s="5"/>
       <c r="O94" s="5"/>
@@ -6798,10 +6414,8 @@
       <c r="V94" s="5"/>
       <c r="W94" s="5"/>
       <c r="X94" s="5"/>
-      <c r="Y94" s="5"/>
-      <c r="Z94" s="5"/>
-    </row>
-    <row r="95" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>410</v>
       </c>
@@ -6832,9 +6446,7 @@
       <c r="K95" s="14">
         <v>2</v>
       </c>
-      <c r="L95" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L95" s="5"/>
       <c r="M95" s="5"/>
       <c r="N95" s="5"/>
       <c r="O95" s="5"/>
@@ -6847,10 +6459,8 @@
       <c r="V95" s="5"/>
       <c r="W95" s="5"/>
       <c r="X95" s="5"/>
-      <c r="Y95" s="5"/>
-      <c r="Z95" s="5"/>
-    </row>
-    <row r="96" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>415</v>
       </c>
@@ -6881,9 +6491,7 @@
       <c r="K96" s="14">
         <v>4964</v>
       </c>
-      <c r="L96" s="11">
-        <v>30.09</v>
-      </c>
+      <c r="L96" s="5"/>
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
       <c r="O96" s="5"/>
@@ -6896,10 +6504,8 @@
       <c r="V96" s="5"/>
       <c r="W96" s="5"/>
       <c r="X96" s="5"/>
-      <c r="Y96" s="5"/>
-      <c r="Z96" s="5"/>
-    </row>
-    <row r="97" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>415</v>
       </c>
@@ -6930,9 +6536,7 @@
       <c r="K97" s="14">
         <v>472</v>
       </c>
-      <c r="L97" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L97" s="5"/>
       <c r="M97" s="5"/>
       <c r="N97" s="5"/>
       <c r="O97" s="5"/>
@@ -6945,10 +6549,8 @@
       <c r="V97" s="5"/>
       <c r="W97" s="5"/>
       <c r="X97" s="5"/>
-      <c r="Y97" s="5"/>
-      <c r="Z97" s="5"/>
-    </row>
-    <row r="98" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>415</v>
       </c>
@@ -6979,9 +6581,7 @@
       <c r="K98" s="14">
         <v>3</v>
       </c>
-      <c r="L98" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L98" s="5"/>
       <c r="M98" s="5"/>
       <c r="N98" s="5"/>
       <c r="O98" s="5"/>
@@ -6994,10 +6594,8 @@
       <c r="V98" s="5"/>
       <c r="W98" s="5"/>
       <c r="X98" s="5"/>
-      <c r="Y98" s="5"/>
-      <c r="Z98" s="5"/>
-    </row>
-    <row r="99" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>425</v>
       </c>
@@ -7028,9 +6626,7 @@
       <c r="K99" s="14">
         <v>2206</v>
       </c>
-      <c r="L99" s="11">
-        <v>10.29</v>
-      </c>
+      <c r="L99" s="5"/>
       <c r="M99" s="5"/>
       <c r="N99" s="5"/>
       <c r="O99" s="5"/>
@@ -7043,10 +6639,8 @@
       <c r="V99" s="5"/>
       <c r="W99" s="5"/>
       <c r="X99" s="5"/>
-      <c r="Y99" s="5"/>
-      <c r="Z99" s="5"/>
-    </row>
-    <row r="100" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>425</v>
       </c>
@@ -7077,9 +6671,7 @@
       <c r="K100" s="14">
         <v>587</v>
       </c>
-      <c r="L100" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L100" s="5"/>
       <c r="M100" s="5"/>
       <c r="N100" s="5"/>
       <c r="O100" s="5"/>
@@ -7092,10 +6684,8 @@
       <c r="V100" s="5"/>
       <c r="W100" s="5"/>
       <c r="X100" s="5"/>
-      <c r="Y100" s="5"/>
-      <c r="Z100" s="5"/>
-    </row>
-    <row r="101" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>425</v>
       </c>
@@ -7126,9 +6716,7 @@
       <c r="K101" s="14">
         <v>2</v>
       </c>
-      <c r="L101" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L101" s="5"/>
       <c r="M101" s="5"/>
       <c r="N101" s="5"/>
       <c r="O101" s="5"/>
@@ -7141,10 +6729,8 @@
       <c r="V101" s="5"/>
       <c r="W101" s="5"/>
       <c r="X101" s="5"/>
-      <c r="Y101" s="5"/>
-      <c r="Z101" s="5"/>
-    </row>
-    <row r="102" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>425</v>
       </c>
@@ -7175,9 +6761,7 @@
       <c r="K102" s="14">
         <v>4</v>
       </c>
-      <c r="L102" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L102" s="5"/>
       <c r="M102" s="5"/>
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
@@ -7190,10 +6774,8 @@
       <c r="V102" s="5"/>
       <c r="W102" s="5"/>
       <c r="X102" s="5"/>
-      <c r="Y102" s="5"/>
-      <c r="Z102" s="5"/>
-    </row>
-    <row r="103" spans="1:26" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>441</v>
       </c>
@@ -7224,9 +6806,7 @@
       <c r="K103" s="14">
         <v>10</v>
       </c>
-      <c r="L103" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L103" s="5"/>
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
       <c r="O103" s="5"/>
@@ -7239,10 +6819,8 @@
       <c r="V103" s="5"/>
       <c r="W103" s="5"/>
       <c r="X103" s="5"/>
-      <c r="Y103" s="5"/>
-      <c r="Z103" s="5"/>
-    </row>
-    <row r="104" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>441</v>
       </c>
@@ -7273,9 +6851,7 @@
       <c r="K104" s="14">
         <v>85</v>
       </c>
-      <c r="L104" s="11">
-        <v>11.79</v>
-      </c>
+      <c r="L104" s="5"/>
       <c r="M104" s="5"/>
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
@@ -7288,10 +6864,8 @@
       <c r="V104" s="5"/>
       <c r="W104" s="5"/>
       <c r="X104" s="5"/>
-      <c r="Y104" s="5"/>
-      <c r="Z104" s="5"/>
-    </row>
-    <row r="105" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>441</v>
       </c>
@@ -7322,9 +6896,7 @@
       <c r="K105" s="14">
         <v>868</v>
       </c>
-      <c r="L105" s="11">
-        <v>27.79</v>
-      </c>
+      <c r="L105" s="5"/>
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
       <c r="O105" s="5"/>
@@ -7337,10 +6909,8 @@
       <c r="V105" s="5"/>
       <c r="W105" s="5"/>
       <c r="X105" s="5"/>
-      <c r="Y105" s="5"/>
-      <c r="Z105" s="5"/>
-    </row>
-    <row r="106" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>452</v>
       </c>
@@ -7371,9 +6941,7 @@
       <c r="K106" s="14">
         <v>3001</v>
       </c>
-      <c r="L106" s="11">
-        <v>12.19</v>
-      </c>
+      <c r="L106" s="5"/>
       <c r="M106" s="5"/>
       <c r="N106" s="5"/>
       <c r="O106" s="5"/>
@@ -7386,10 +6954,8 @@
       <c r="V106" s="5"/>
       <c r="W106" s="5"/>
       <c r="X106" s="5"/>
-      <c r="Y106" s="5"/>
-      <c r="Z106" s="5"/>
-    </row>
-    <row r="107" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>452</v>
       </c>
@@ -7420,9 +6986,7 @@
       <c r="K107" s="14">
         <v>732</v>
       </c>
-      <c r="L107" s="11">
-        <v>11.29</v>
-      </c>
+      <c r="L107" s="5"/>
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
       <c r="O107" s="5"/>
@@ -7435,10 +6999,8 @@
       <c r="V107" s="5"/>
       <c r="W107" s="5"/>
       <c r="X107" s="5"/>
-      <c r="Y107" s="5"/>
-      <c r="Z107" s="5"/>
-    </row>
-    <row r="108" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>460</v>
       </c>
@@ -7469,9 +7031,7 @@
       <c r="K108" s="14">
         <v>0</v>
       </c>
-      <c r="L108" s="11">
-        <v>9.99</v>
-      </c>
+      <c r="L108" s="5"/>
       <c r="M108" s="5"/>
       <c r="N108" s="5"/>
       <c r="O108" s="5"/>
@@ -7484,13 +7044,11 @@
       <c r="V108" s="5"/>
       <c r="W108" s="5"/>
       <c r="X108" s="5"/>
-      <c r="Y108" s="5"/>
-      <c r="Z108" s="5"/>
-    </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="109" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11145,7 +10703,7 @@
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
     </row>
-    <row r="72" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>311</v>
       </c>
@@ -13204,8 +12762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044E2AB4-CF41-8143-88AF-BE70935CCE4C}">
   <dimension ref="A1:Z117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
@@ -16477,7 +16035,7 @@
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
     </row>
-    <row r="67" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>281</v>
       </c>
@@ -16526,7 +16084,7 @@
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
     </row>
-    <row r="68" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>298</v>
       </c>
@@ -16575,7 +16133,7 @@
       <c r="Y68" s="5"/>
       <c r="Z68" s="5"/>
     </row>
-    <row r="69" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>303</v>
       </c>
@@ -16624,7 +16182,7 @@
       <c r="Y69" s="5"/>
       <c r="Z69" s="5"/>
     </row>
-    <row r="70" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>303</v>
       </c>
@@ -16675,7 +16233,7 @@
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
     </row>
-    <row r="71" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>311</v>
       </c>
@@ -16724,7 +16282,7 @@
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
     </row>
-    <row r="72" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>311</v>
       </c>
@@ -17217,7 +16775,7 @@
       <c r="Y81" s="5"/>
       <c r="Z81" s="5"/>
     </row>
-    <row r="82" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>361</v>
       </c>
@@ -17266,7 +16824,7 @@
       <c r="Y82" s="5"/>
       <c r="Z82" s="5"/>
     </row>
-    <row r="83" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>361</v>
       </c>
@@ -17468,7 +17026,7 @@
       <c r="Y86" s="5"/>
       <c r="Z86" s="5"/>
     </row>
-    <row r="87" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>361</v>
       </c>
@@ -17519,7 +17077,7 @@
       <c r="Y87" s="5"/>
       <c r="Z87" s="5"/>
     </row>
-    <row r="88" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>361</v>
       </c>
@@ -18254,7 +17812,7 @@
       <c r="Y102" s="5"/>
       <c r="Z102" s="5"/>
     </row>
-    <row r="103" spans="1:26" ht="68" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>441</v>
       </c>
@@ -18303,7 +17861,7 @@
       <c r="Y103" s="5"/>
       <c r="Z103" s="5"/>
     </row>
-    <row r="104" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>441</v>
       </c>
@@ -18352,7 +17910,7 @@
       <c r="Y104" s="5"/>
       <c r="Z104" s="5"/>
     </row>
-    <row r="105" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>441</v>
       </c>
